--- a/justifs/mtir-lignos-etal-2019/lignose-mt_ir_scores_all.xlsx
+++ b/justifs/mtir-lignos-etal-2019/lignose-mt_ir_scores_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tg/work/papers/007-mt-eval-macro/justifs/mtir-lignos-etal-2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C1FEB0-08AC-254D-A7FB-040F6DB43E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEFB551-796F-E341-A383-461572C1F6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="56940" windowHeight="28340" activeTab="1" xr2:uid="{6F89605E-168E-DC45-9926-895E62D4BBE9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{6F89605E-168E-DC45-9926-895E62D4BBE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="77">
   <si>
     <t>dataset</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Pearson wiki neural rbo</t>
   </si>
   <si>
-    <t>Pearson wiki neural ndcg8</t>
-  </si>
-  <si>
     <t>bleu</t>
   </si>
   <si>
@@ -268,16 +265,10 @@
     <t>Pearson wiki BM25 rbo</t>
   </si>
   <si>
-    <t>Pearson wiki BM25 ndcg8</t>
-  </si>
-  <si>
     <t>Pearson Europarl  BM25 map.gm3</t>
   </si>
   <si>
     <t>Pearson Europarl BM25 rbo</t>
-  </si>
-  <si>
-    <t>Pearson Europarl BM25 ndcg8</t>
   </si>
 </sst>
 </file>
@@ -285,7 +276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -408,27 +399,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -4190,7 +4181,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0BE9B9C-84AC-D842-A4E0-E179EF9E9C0D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0BE9B9C-84AC-D842-A4E0-E179EF9E9C0D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E66" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="33">
     <pivotField axis="axisRow" showAll="0">
@@ -4732,12 +4723,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1426D082-EBEC-BB4A-9921-38B7C7060026}" name="Table13" displayName="Table13" ref="A2:AY53" totalsRowShown="0">
-  <autoFilter ref="A2:AY53" xr:uid="{46ED3568-8638-AE4C-B1D7-CDD253817581}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AY47">
-    <sortCondition ref="A3:A47"/>
-    <sortCondition ref="C3:C47"/>
-    <sortCondition ref="B3:B47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1426D082-EBEC-BB4A-9921-38B7C7060026}" name="Table13" displayName="Table13" ref="A2:AY47" totalsRowShown="0">
+  <autoFilter ref="A2:AY47" xr:uid="{46ED3568-8638-AE4C-B1D7-CDD253817581}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AY43">
+    <sortCondition ref="A3:A43"/>
+    <sortCondition ref="C3:C43"/>
+    <sortCondition ref="B3:B43"/>
   </sortState>
   <tableColumns count="51">
     <tableColumn id="2" xr3:uid="{99D66793-5298-A440-82B9-AD60BBA8F30A}" name="lang"/>
@@ -14942,10 +14933,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39D4A14-17BD-2847-98A0-5CF999160A2F}">
-  <dimension ref="A1:AY53"/>
+  <dimension ref="A1:AY47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="X35" sqref="X35"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14954,18 +14945,18 @@
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" customWidth="1"/>
     <col min="4" max="4" width="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
     <col min="6" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="11" customWidth="1"/>
     <col min="12" max="16" width="8" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="11" customWidth="1"/>
     <col min="18" max="18" width="10.33203125" customWidth="1"/>
     <col min="19" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" customWidth="1"/>
     <col min="23" max="23" width="26.33203125" customWidth="1"/>
     <col min="24" max="29" width="11.83203125" customWidth="1"/>
     <col min="30" max="31" width="15.1640625" customWidth="1"/>
-    <col min="32" max="32" width="8.33203125" style="14" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" style="10" customWidth="1"/>
     <col min="33" max="33" width="11.1640625" customWidth="1"/>
     <col min="34" max="34" width="16.83203125" customWidth="1"/>
     <col min="35" max="35" width="18.5" customWidth="1"/>
@@ -14988,62 +14979,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="11" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="12" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="X1" s="18" t="s">
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="X1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
-      <c r="AI1" s="10"/>
-      <c r="AJ1" s="10"/>
-      <c r="AK1" s="10"/>
-      <c r="AL1" s="10"/>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -15058,7 +15049,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
@@ -15076,7 +15067,7 @@
       <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>54</v>
       </c>
       <c r="L2" t="s">
@@ -15094,7 +15085,7 @@
       <c r="P2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="R2" t="s">
@@ -15116,30 +15107,30 @@
         <v>45</v>
       </c>
       <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>66</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>68</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>69</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>70</v>
       </c>
-      <c r="AE2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" s="14" t="s">
+      <c r="AF2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="AG2" t="s">
@@ -15213,7 +15204,7 @@
       <c r="D3">
         <v>0.25359999999999999</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F3">
@@ -15231,7 +15222,7 @@
       <c r="J3">
         <v>0.1085</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="11">
         <v>2.52E-2</v>
       </c>
       <c r="L3">
@@ -15249,7 +15240,7 @@
       <c r="P3">
         <v>0.49940000000000001</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="11">
         <v>0.15970000000000001</v>
       </c>
       <c r="R3">
@@ -15291,7 +15282,7 @@
       <c r="AE3">
         <v>0.44900000000000001</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="10">
         <v>18.7</v>
       </c>
       <c r="AG3">
@@ -15365,7 +15356,7 @@
       <c r="D4">
         <v>0.33729999999999999</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="F4">
@@ -15383,7 +15374,7 @@
       <c r="J4">
         <v>0.13969999999999999</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>8.9899999999999994E-2</v>
       </c>
       <c r="L4">
@@ -15401,7 +15392,7 @@
       <c r="P4">
         <v>0.64029999999999998</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="11">
         <v>0.22989999999999999</v>
       </c>
       <c r="R4">
@@ -15443,7 +15434,7 @@
       <c r="AE4">
         <v>0.50800000000000001</v>
       </c>
-      <c r="AF4" s="14">
+      <c r="AF4" s="10">
         <v>23.9</v>
       </c>
       <c r="AG4">
@@ -15517,7 +15508,7 @@
       <c r="D5">
         <v>0.35680000000000001</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="F5">
@@ -15535,7 +15526,7 @@
       <c r="J5">
         <v>0.15040000000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>0.10929999999999999</v>
       </c>
       <c r="L5">
@@ -15553,7 +15544,7 @@
       <c r="P5">
         <v>0.66769999999999996</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="11">
         <v>0.24790000000000001</v>
       </c>
       <c r="R5">
@@ -15595,7 +15586,7 @@
       <c r="AE5">
         <v>0.52600000000000002</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="10">
         <v>25.8</v>
       </c>
       <c r="AG5">
@@ -15669,7 +15660,7 @@
       <c r="D6">
         <v>0.37619999999999998</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="F6">
@@ -15687,7 +15678,7 @@
       <c r="J6">
         <v>0.1643</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <v>0.13619999999999999</v>
       </c>
       <c r="L6">
@@ -15705,7 +15696,7 @@
       <c r="P6">
         <v>0.69220000000000004</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="11">
         <v>0.27200000000000002</v>
       </c>
       <c r="R6">
@@ -15747,7 +15738,7 @@
       <c r="AE6">
         <v>0.54</v>
       </c>
-      <c r="AF6" s="14">
+      <c r="AF6" s="10">
         <v>27.4</v>
       </c>
       <c r="AG6">
@@ -15821,7 +15812,7 @@
       <c r="D7">
         <v>0.39140000000000003</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="F7">
@@ -15839,7 +15830,7 @@
       <c r="J7">
         <v>0.1699</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <v>0.16109999999999999</v>
       </c>
       <c r="L7">
@@ -15857,7 +15848,7 @@
       <c r="P7">
         <v>0.7137</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="11">
         <v>0.29160000000000003</v>
       </c>
       <c r="R7">
@@ -15899,7 +15890,7 @@
       <c r="AE7">
         <v>0.55200000000000005</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="10">
         <v>28.7</v>
       </c>
       <c r="AG7">
@@ -15973,7 +15964,7 @@
       <c r="D8">
         <v>0.3947</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>1.4E-3</v>
       </c>
       <c r="F8">
@@ -15991,7 +15982,7 @@
       <c r="J8">
         <v>0.1762</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>0.16619999999999999</v>
       </c>
       <c r="L8">
@@ -16009,7 +16000,7 @@
       <c r="P8">
         <v>0.72070000000000001</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="11">
         <v>0.28249999999999997</v>
       </c>
       <c r="R8">
@@ -16051,7 +16042,7 @@
       <c r="AE8">
         <v>0.55800000000000005</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="10">
         <v>29.4</v>
       </c>
       <c r="AG8">
@@ -16125,7 +16116,7 @@
       <c r="D9">
         <v>0.40539999999999998</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="F9">
@@ -16143,7 +16134,7 @@
       <c r="J9">
         <v>0.1789</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="11">
         <v>0.2056</v>
       </c>
       <c r="L9">
@@ -16161,7 +16152,7 @@
       <c r="P9">
         <v>0.74329999999999996</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="11">
         <v>0.29770000000000002</v>
       </c>
       <c r="R9">
@@ -16203,7 +16194,7 @@
       <c r="AE9">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="10">
         <v>31</v>
       </c>
       <c r="AG9">
@@ -16277,7 +16268,7 @@
       <c r="D10">
         <v>0.41089999999999999</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="F10">
@@ -16295,7 +16286,7 @@
       <c r="J10">
         <v>0.18099999999999999</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>0.19439999999999999</v>
       </c>
       <c r="L10">
@@ -16313,7 +16304,7 @@
       <c r="P10">
         <v>0.73680000000000001</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="11">
         <v>0.28849999999999998</v>
       </c>
       <c r="R10">
@@ -16355,7 +16346,7 @@
       <c r="AE10">
         <v>0.56799999999999995</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="10">
         <v>30.7</v>
       </c>
       <c r="AG10">
@@ -16429,7 +16420,7 @@
       <c r="D11">
         <v>0.24</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="12">
         <v>1E-4</v>
       </c>
       <c r="F11">
@@ -16447,7 +16438,7 @@
       <c r="J11">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="L11">
@@ -16465,7 +16456,7 @@
       <c r="P11">
         <v>0.34689999999999999</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="11">
         <v>0.1298</v>
       </c>
       <c r="R11">
@@ -16507,7 +16498,7 @@
       <c r="AE11">
         <v>0.42599999999999999</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="10">
         <v>17.5</v>
       </c>
       <c r="AG11">
@@ -16581,7 +16572,7 @@
       <c r="D12">
         <v>0.33210000000000001</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="12">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="F12">
@@ -16599,7 +16590,7 @@
       <c r="J12">
         <v>0.12189999999999999</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="11">
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="L12">
@@ -16617,7 +16608,7 @@
       <c r="P12">
         <v>0.56000000000000005</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="11">
         <v>0.2354</v>
       </c>
       <c r="R12">
@@ -16659,7 +16650,7 @@
       <c r="AE12">
         <v>0.502</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="10">
         <v>23.5</v>
       </c>
       <c r="AG12">
@@ -16733,7 +16724,7 @@
       <c r="D13">
         <v>0.37740000000000001</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="F13">
@@ -16751,7 +16742,7 @@
       <c r="J13">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="11">
         <v>8.4199999999999997E-2</v>
       </c>
       <c r="L13">
@@ -16769,7 +16760,7 @@
       <c r="P13">
         <v>0.62970000000000004</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="11">
         <v>0.28060000000000002</v>
       </c>
       <c r="R13">
@@ -16811,7 +16802,7 @@
       <c r="AE13">
         <v>0.53200000000000003</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="10">
         <v>26.5</v>
       </c>
       <c r="AG13">
@@ -16885,7 +16876,7 @@
       <c r="D14">
         <v>0.3891</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="F14">
@@ -16903,7 +16894,7 @@
       <c r="J14">
         <v>0.14649999999999999</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="11">
         <v>0.1125</v>
       </c>
       <c r="L14">
@@ -16921,7 +16912,7 @@
       <c r="P14">
         <v>0.66569999999999996</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="11">
         <v>0.27810000000000001</v>
       </c>
       <c r="R14">
@@ -16963,7 +16954,7 @@
       <c r="AE14">
         <v>0.55100000000000005</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="10">
         <v>28.5</v>
       </c>
       <c r="AG14">
@@ -17037,7 +17028,7 @@
       <c r="D15">
         <v>0.40400000000000003</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>1E-3</v>
       </c>
       <c r="F15">
@@ -17055,7 +17046,7 @@
       <c r="J15">
         <v>0.15870000000000001</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="11">
         <v>0.13150000000000001</v>
       </c>
       <c r="L15">
@@ -17073,7 +17064,7 @@
       <c r="P15">
         <v>0.68520000000000003</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="11">
         <v>0.28699999999999998</v>
       </c>
       <c r="R15">
@@ -17115,7 +17106,7 @@
       <c r="AE15">
         <v>0.55700000000000005</v>
       </c>
-      <c r="AF15" s="14">
+      <c r="AF15" s="10">
         <v>29.4</v>
       </c>
       <c r="AG15">
@@ -17189,7 +17180,7 @@
       <c r="D16">
         <v>0.40689999999999998</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>1E-3</v>
       </c>
       <c r="F16">
@@ -17207,7 +17198,7 @@
       <c r="J16">
         <v>0.1605</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="11">
         <v>0.13789999999999999</v>
       </c>
       <c r="L16">
@@ -17225,7 +17216,7 @@
       <c r="P16">
         <v>0.69240000000000002</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="11">
         <v>0.27310000000000001</v>
       </c>
       <c r="R16">
@@ -17267,7 +17258,7 @@
       <c r="AE16">
         <v>0.56399999999999995</v>
       </c>
-      <c r="AF16" s="14">
+      <c r="AF16" s="10">
         <v>30.2</v>
       </c>
       <c r="AG16">
@@ -17341,7 +17332,7 @@
       <c r="D17">
         <v>0.4204</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="F17">
@@ -17359,7 +17350,7 @@
       <c r="J17">
         <v>0.1668</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="11">
         <v>0.16700000000000001</v>
       </c>
       <c r="L17">
@@ -17377,7 +17368,7 @@
       <c r="P17">
         <v>0.71089999999999998</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="11">
         <v>0.32269999999999999</v>
       </c>
       <c r="R17">
@@ -17419,7 +17410,7 @@
       <c r="AE17">
         <v>0.57299999999999995</v>
       </c>
-      <c r="AF17" s="14">
+      <c r="AF17" s="10">
         <v>31.2</v>
       </c>
       <c r="AG17">
@@ -17493,7 +17484,7 @@
       <c r="D18">
         <v>0.42449999999999999</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="11">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="F18">
@@ -17511,7 +17502,7 @@
       <c r="J18">
         <v>0.1666</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="11">
         <v>0.16020000000000001</v>
       </c>
       <c r="L18">
@@ -17529,7 +17520,7 @@
       <c r="P18">
         <v>0.70950000000000002</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="11">
         <v>0.313</v>
       </c>
       <c r="R18">
@@ -17571,7 +17562,7 @@
       <c r="AE18">
         <v>0.57499999999999996</v>
       </c>
-      <c r="AF18" s="14">
+      <c r="AF18" s="10">
         <v>31.5</v>
       </c>
       <c r="AG18">
@@ -17637,116 +17628,116 @@
       <c r="W19" t="s">
         <v>61</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X19" s="13">
         <f t="shared" ref="X19:AE19" si="0">CORREL($E$3:$E$18, X3:X18)</f>
         <v>0.87994829894755977</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="Y19" s="13">
         <f t="shared" si="0"/>
         <v>0.86665150514786704</v>
       </c>
-      <c r="Z19" s="17">
+      <c r="Z19" s="13">
         <f t="shared" si="0"/>
         <v>0.86321933096299752</v>
       </c>
-      <c r="AA19" s="17">
+      <c r="AA19" s="13">
         <f t="shared" si="0"/>
         <v>0.86080585602439408</v>
       </c>
-      <c r="AB19" s="17">
+      <c r="AB19" s="13">
         <f t="shared" si="0"/>
         <v>0.85976524922971465</v>
       </c>
-      <c r="AC19" s="17">
+      <c r="AC19" s="13">
         <f t="shared" si="0"/>
         <v>0.87477307678783744</v>
       </c>
-      <c r="AD19" s="17">
+      <c r="AD19" s="13">
         <f t="shared" si="0"/>
         <v>0.86213923656808078</v>
       </c>
-      <c r="AE19" s="17">
+      <c r="AE19" s="13">
         <f t="shared" si="0"/>
         <v>0.86490578464966272</v>
       </c>
-      <c r="AF19" s="20">
-        <f>CORREL($E$3:$E$18, AF3:AF18)</f>
+      <c r="AF19" s="15">
+        <f t="shared" ref="AF19:AY19" si="1">CORREL($E$3:$E$18, AF3:AF18)</f>
         <v>0.8800276236970408</v>
       </c>
-      <c r="AG19" s="17">
-        <f>CORREL($E$3:$E$18, AG3:AG18)</f>
+      <c r="AG19" s="13">
+        <f t="shared" si="1"/>
         <v>0.87881737893567047</v>
       </c>
-      <c r="AH19" s="17">
-        <f>CORREL($E$3:$E$18, AH3:AH18)</f>
+      <c r="AH19" s="13">
+        <f t="shared" si="1"/>
         <v>0.87966341034709805</v>
       </c>
-      <c r="AI19" s="17">
-        <f>CORREL($E$3:$E$18, AI3:AI18)</f>
+      <c r="AI19" s="13">
+        <f t="shared" si="1"/>
         <v>0.87747926378434082</v>
       </c>
-      <c r="AJ19" s="17">
-        <f>CORREL($E$3:$E$18, AJ3:AJ18)</f>
+      <c r="AJ19" s="13">
+        <f t="shared" si="1"/>
         <v>0.8553946906144072</v>
       </c>
-      <c r="AK19" s="17">
-        <f>CORREL($E$3:$E$18, AK3:AK18)</f>
+      <c r="AK19" s="13">
+        <f t="shared" si="1"/>
         <v>0.85218043630134888</v>
       </c>
-      <c r="AL19" s="17">
-        <f>CORREL($E$3:$E$18, AL3:AL18)</f>
+      <c r="AL19" s="13">
+        <f t="shared" si="1"/>
         <v>0.85664340123165283</v>
       </c>
-      <c r="AM19" s="17">
-        <f>CORREL($E$3:$E$18, AM3:AM18)</f>
+      <c r="AM19" s="13">
+        <f t="shared" si="1"/>
         <v>0.85378853365288776</v>
       </c>
-      <c r="AN19" s="17">
-        <f>CORREL($E$3:$E$18, AN3:AN18)</f>
+      <c r="AN19" s="13">
+        <f t="shared" si="1"/>
         <v>0.87500036838201134</v>
       </c>
-      <c r="AO19" s="17">
-        <f>CORREL($E$3:$E$18, AO3:AO18)</f>
+      <c r="AO19" s="13">
+        <f t="shared" si="1"/>
         <v>0.87176201314692037</v>
       </c>
-      <c r="AP19" s="17">
-        <f>CORREL($E$3:$E$18, AP3:AP18)</f>
+      <c r="AP19" s="13">
+        <f t="shared" si="1"/>
         <v>0.87551060344025078</v>
       </c>
-      <c r="AQ19" s="17">
-        <f>CORREL($E$3:$E$18, AQ3:AQ18)</f>
+      <c r="AQ19" s="13">
+        <f t="shared" si="1"/>
         <v>0.87355099815347226</v>
       </c>
-      <c r="AR19" s="17">
-        <f>CORREL($E$3:$E$18, AR3:AR18)</f>
+      <c r="AR19" s="13">
+        <f t="shared" si="1"/>
         <v>0.88416297259978538</v>
       </c>
-      <c r="AS19" s="17">
-        <f>CORREL($E$3:$E$18, AS3:AS18)</f>
+      <c r="AS19" s="13">
+        <f t="shared" si="1"/>
         <v>0.88120327367260409</v>
       </c>
-      <c r="AT19" s="17">
-        <f>CORREL($E$3:$E$18, AT3:AT18)</f>
+      <c r="AT19" s="13">
+        <f t="shared" si="1"/>
         <v>0.88407997512269232</v>
       </c>
-      <c r="AU19" s="17">
-        <f>CORREL($E$3:$E$18, AU3:AU18)</f>
+      <c r="AU19" s="13">
+        <f t="shared" si="1"/>
         <v>0.88289537717123845</v>
       </c>
-      <c r="AV19" s="17">
-        <f>CORREL($E$3:$E$18, AV3:AV18)</f>
+      <c r="AV19" s="13">
+        <f t="shared" si="1"/>
         <v>0.88754142473812792</v>
       </c>
-      <c r="AW19" s="17">
-        <f>CORREL($E$3:$E$18, AW3:AW18)</f>
+      <c r="AW19" s="13">
+        <f t="shared" si="1"/>
         <v>0.88509142504167126</v>
       </c>
-      <c r="AX19" s="17">
-        <f>CORREL($E$3:$E$18, AX3:AX18)</f>
+      <c r="AX19" s="13">
+        <f t="shared" si="1"/>
         <v>0.88738653992032079</v>
       </c>
-      <c r="AY19" s="17">
-        <f>CORREL($E$3:$E$18, AY3:AY18)</f>
+      <c r="AY19" s="13">
+        <f t="shared" si="1"/>
         <v>0.8876099663687026</v>
       </c>
     </row>
@@ -17755,235 +17746,159 @@
       <c r="W20" t="s">
         <v>62</v>
       </c>
-      <c r="X20" s="19">
-        <f t="shared" ref="X20:AE20" si="1">CORREL($I$3:$I$18, X3:X18)</f>
+      <c r="X20" s="14">
+        <f t="shared" ref="X20:AE20" si="2">CORREL($I$3:$I$18, X3:X18)</f>
         <v>0.96129453300940226</v>
       </c>
-      <c r="Y20" s="19">
-        <f t="shared" si="1"/>
+      <c r="Y20" s="14">
+        <f t="shared" si="2"/>
         <v>0.96524037178490352</v>
       </c>
-      <c r="Z20" s="19">
-        <f t="shared" si="1"/>
+      <c r="Z20" s="14">
+        <f t="shared" si="2"/>
         <v>0.95713148274735205</v>
       </c>
-      <c r="AA20" s="19">
-        <f t="shared" si="1"/>
+      <c r="AA20" s="14">
+        <f t="shared" si="2"/>
         <v>0.95827696189500711</v>
       </c>
-      <c r="AB20" s="19">
-        <f t="shared" si="1"/>
+      <c r="AB20" s="14">
+        <f t="shared" si="2"/>
         <v>0.95264502805372209</v>
       </c>
-      <c r="AC20" s="19">
-        <f t="shared" si="1"/>
+      <c r="AC20" s="14">
+        <f t="shared" si="2"/>
         <v>0.95930394188234391</v>
       </c>
-      <c r="AD20" s="19">
-        <f t="shared" si="1"/>
+      <c r="AD20" s="14">
+        <f t="shared" si="2"/>
         <v>0.96170860329289709</v>
       </c>
-      <c r="AE20" s="19">
-        <f t="shared" si="1"/>
+      <c r="AE20" s="14">
+        <f t="shared" si="2"/>
         <v>0.96444405201898264</v>
       </c>
-      <c r="AF20" s="20">
-        <f>CORREL($I$3:$I$18, AF3:AF18)</f>
+      <c r="AF20" s="15">
+        <f t="shared" ref="AF20:AY20" si="3">CORREL($I$3:$I$18, AF3:AF18)</f>
         <v>0.96208150704870832</v>
       </c>
-      <c r="AG20" s="17">
-        <f>CORREL($I$3:$I$18, AG3:AG18)</f>
+      <c r="AG20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96301655080178261</v>
       </c>
-      <c r="AH20" s="17">
-        <f>CORREL($I$3:$I$18, AH3:AH18)</f>
+      <c r="AH20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96096516837909429</v>
       </c>
-      <c r="AI20" s="17">
-        <f>CORREL($I$3:$I$18, AI3:AI18)</f>
+      <c r="AI20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96214809541193813</v>
       </c>
-      <c r="AJ20" s="17">
-        <f>CORREL($I$3:$I$18, AJ3:AJ18)</f>
+      <c r="AJ20" s="13">
+        <f t="shared" si="3"/>
         <v>0.95430612568674633</v>
       </c>
-      <c r="AK20" s="17">
-        <f>CORREL($I$3:$I$18, AK3:AK18)</f>
+      <c r="AK20" s="13">
+        <f t="shared" si="3"/>
         <v>0.95442608319711053</v>
       </c>
-      <c r="AL20" s="17">
-        <f>CORREL($I$3:$I$18, AL3:AL18)</f>
+      <c r="AL20" s="13">
+        <f t="shared" si="3"/>
         <v>0.95602951757446586</v>
       </c>
-      <c r="AM20" s="17">
-        <f>CORREL($I$3:$I$18, AM3:AM18)</f>
+      <c r="AM20" s="13">
+        <f t="shared" si="3"/>
         <v>0.95702441630549495</v>
       </c>
-      <c r="AN20" s="17">
-        <f>CORREL($I$3:$I$18, AN3:AN18)</f>
+      <c r="AN20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96096724441878201</v>
       </c>
-      <c r="AO20" s="17">
-        <f>CORREL($I$3:$I$18, AO3:AO18)</f>
+      <c r="AO20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96050517421481263</v>
       </c>
-      <c r="AP20" s="17">
-        <f>CORREL($I$3:$I$18, AP3:AP18)</f>
+      <c r="AP20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96178185309428643</v>
       </c>
-      <c r="AQ20" s="17">
-        <f>CORREL($I$3:$I$18, AQ3:AQ18)</f>
+      <c r="AQ20" s="13">
+        <f t="shared" si="3"/>
         <v>0.9622746080716521</v>
       </c>
-      <c r="AR20" s="17">
-        <f>CORREL($I$3:$I$18, AR3:AR18)</f>
+      <c r="AR20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96214140911582058</v>
       </c>
-      <c r="AS20" s="17">
-        <f>CORREL($I$3:$I$18, AS3:AS18)</f>
+      <c r="AS20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96210990560773213</v>
       </c>
-      <c r="AT20" s="17">
-        <f>CORREL($I$3:$I$18, AT3:AT18)</f>
+      <c r="AT20" s="13">
+        <f t="shared" si="3"/>
         <v>0.962550770679239</v>
       </c>
-      <c r="AU20" s="17">
-        <f>CORREL($I$3:$I$18, AU3:AU18)</f>
+      <c r="AU20" s="13">
+        <f t="shared" si="3"/>
         <v>0.9630990689668425</v>
       </c>
-      <c r="AV20" s="17">
-        <f>CORREL($I$3:$I$18, AV3:AV18)</f>
+      <c r="AV20" s="13">
+        <f t="shared" si="3"/>
         <v>0.9601895624387794</v>
       </c>
-      <c r="AW20" s="17">
-        <f>CORREL($I$3:$I$18, AW3:AW18)</f>
+      <c r="AW20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96052472599112082</v>
       </c>
-      <c r="AX20" s="17">
-        <f>CORREL($I$3:$I$18, AX3:AX18)</f>
+      <c r="AX20" s="13">
+        <f t="shared" si="3"/>
         <v>0.95913548345312016</v>
       </c>
-      <c r="AY20" s="17">
-        <f>CORREL($I$3:$I$18, AY3:AY18)</f>
+      <c r="AY20" s="13">
+        <f t="shared" si="3"/>
         <v>0.96141649766487192</v>
       </c>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="W21" t="s">
-        <v>63</v>
-      </c>
-      <c r="X21" s="19">
-        <f t="shared" ref="X21:AE21" si="2">CORREL($J$3:$J$18, X3:X18)</f>
-        <v>0.93202752780119091</v>
-      </c>
-      <c r="Y21" s="19">
-        <f t="shared" si="2"/>
-        <v>0.94347323313103848</v>
-      </c>
-      <c r="Z21" s="19">
-        <f t="shared" si="2"/>
-        <v>0.93083009557014218</v>
-      </c>
-      <c r="AA21" s="19">
-        <f t="shared" si="2"/>
-        <v>0.93461808593662521</v>
-      </c>
-      <c r="AB21" s="19">
-        <f t="shared" si="2"/>
-        <v>0.92483629423715508</v>
-      </c>
-      <c r="AC21" s="19">
-        <f t="shared" si="2"/>
-        <v>0.93021175096890441</v>
-      </c>
-      <c r="AD21" s="19">
-        <f t="shared" si="2"/>
-        <v>0.942829975233762</v>
-      </c>
-      <c r="AE21" s="19">
-        <f t="shared" si="2"/>
-        <v>0.94647273964690892</v>
-      </c>
-      <c r="AF21" s="20">
-        <f>CORREL($J$3:$J$18, AF3:AF18)</f>
-        <v>0.93318407034459605</v>
-      </c>
-      <c r="AG21" s="17">
-        <f>CORREL($J$3:$J$18, AG3:AG18)</f>
-        <v>0.9356083806141986</v>
-      </c>
-      <c r="AH21" s="17">
-        <f>CORREL($J$3:$J$18, AH3:AH18)</f>
-        <v>0.93159018141197281</v>
-      </c>
-      <c r="AI21" s="17">
-        <f>CORREL($J$3:$J$18, AI3:AI18)</f>
-        <v>0.93439878399495524</v>
-      </c>
-      <c r="AJ21" s="17">
-        <f>CORREL($J$3:$J$18, AJ3:AJ18)</f>
-        <v>0.93375640684671501</v>
-      </c>
-      <c r="AK21" s="17">
-        <f>CORREL($J$3:$J$18, AK3:AK18)</f>
-        <v>0.93567236251117936</v>
-      </c>
-      <c r="AL21" s="17">
-        <f>CORREL($J$3:$J$18, AL3:AL18)</f>
-        <v>0.93496828440290092</v>
-      </c>
-      <c r="AM21" s="17">
-        <f>CORREL($J$3:$J$18, AM3:AM18)</f>
-        <v>0.9390686620220885</v>
-      </c>
-      <c r="AN21" s="17">
-        <f>CORREL($J$3:$J$18, AN3:AN18)</f>
-        <v>0.93488961362123846</v>
-      </c>
-      <c r="AO21" s="17">
-        <f>CORREL($J$3:$J$18, AO3:AO18)</f>
-        <v>0.93583454835836855</v>
-      </c>
-      <c r="AP21" s="17">
-        <f>CORREL($J$3:$J$18, AP3:AP18)</f>
-        <v>0.93612424573476316</v>
-      </c>
-      <c r="AQ21" s="17">
-        <f>CORREL($J$3:$J$18, AQ3:AQ18)</f>
-        <v>0.93821197189815242</v>
-      </c>
-      <c r="AR21" s="17">
-        <f>CORREL($J$3:$J$18, AR3:AR18)</f>
-        <v>0.93323860799295366</v>
-      </c>
-      <c r="AS21" s="17">
-        <f>CORREL($J$3:$J$18, AS3:AS18)</f>
-        <v>0.93384899849831948</v>
-      </c>
-      <c r="AT21" s="17">
-        <f>CORREL($J$3:$J$18, AT3:AT18)</f>
-        <v>0.93371357550607614</v>
-      </c>
-      <c r="AU21" s="17">
-        <f t="shared" ref="AU21:AY21" si="3">CORREL($J$3:$J$18, AU3:AU18)</f>
-        <v>0.9347300708662124</v>
-      </c>
-      <c r="AV21" s="17">
-        <f t="shared" si="3"/>
-        <v>0.92775776406497901</v>
-      </c>
-      <c r="AW21" s="17">
-        <f t="shared" si="3"/>
-        <v>0.92924104186182299</v>
-      </c>
-      <c r="AX21" s="17">
-        <f t="shared" si="3"/>
-        <v>0.92640538105206971</v>
-      </c>
-      <c r="AY21" s="17">
-        <f t="shared" si="3"/>
-        <v>0.92993829326764499</v>
+        <v>73</v>
+      </c>
+      <c r="X21" s="13">
+        <f>CORREL($K$3:$K$18, X$3:X$18)</f>
+        <v>0.93307474031093318</v>
+      </c>
+      <c r="Y21" s="13">
+        <f>CORREL($K$3:$K$18, Y$3:Y$18)</f>
+        <v>0.92136804412205298</v>
+      </c>
+      <c r="Z21" s="13">
+        <f t="shared" ref="Z21:AD21" si="4">CORREL($K$3:$K$18, Z$3:Z$18)</f>
+        <v>0.92030433266665146</v>
+      </c>
+      <c r="AA21" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9180406900140069</v>
+      </c>
+      <c r="AB21" s="13">
+        <f t="shared" si="4"/>
+        <v>0.91815478360242309</v>
+      </c>
+      <c r="AC21" s="13">
+        <f t="shared" si="4"/>
+        <v>0.9289265146768565</v>
+      </c>
+      <c r="AD21" s="13">
+        <f t="shared" si="4"/>
+        <v>0.91869974973048718</v>
+      </c>
+      <c r="AE21" s="13">
+        <f>CORREL($K$3:$K$18, AE$3:AE$18)</f>
+        <v>0.92082484194975134</v>
+      </c>
+      <c r="AF21" s="15">
+        <f>CORREL($K$3:$K$18, AF$3:AF$18)</f>
+        <v>0.93310235189138324</v>
       </c>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
@@ -17991,411 +17906,742 @@
       <c r="W22" t="s">
         <v>74</v>
       </c>
-      <c r="X22" s="17">
-        <f>CORREL($K$3:$K$18, X$3:X$18)</f>
-        <v>0.93307474031093318</v>
-      </c>
-      <c r="Y22" s="17">
-        <f>CORREL($K$3:$K$18, Y$3:Y$18)</f>
-        <v>0.92136804412205298</v>
-      </c>
-      <c r="Z22" s="17">
-        <f t="shared" ref="Z22:AD22" si="4">CORREL($K$3:$K$18, Z$3:Z$18)</f>
-        <v>0.92030433266665146</v>
-      </c>
-      <c r="AA22" s="17">
-        <f t="shared" si="4"/>
-        <v>0.9180406900140069</v>
-      </c>
-      <c r="AB22" s="17">
-        <f t="shared" si="4"/>
-        <v>0.91815478360242309</v>
-      </c>
-      <c r="AC22" s="17">
-        <f t="shared" si="4"/>
-        <v>0.9289265146768565</v>
-      </c>
-      <c r="AD22" s="17">
-        <f t="shared" si="4"/>
-        <v>0.91869974973048718</v>
-      </c>
-      <c r="AE22" s="17">
-        <f>CORREL($K$3:$K$18, AE$3:AE$18)</f>
-        <v>0.92082484194975134</v>
-      </c>
-      <c r="AF22" s="20">
-        <f>CORREL($K$3:$K$18, AF$3:AF$18)</f>
-        <v>0.93310235189138324</v>
+      <c r="X22" s="13">
+        <f>CORREL($O$3:$O$18, X$3:X$18)</f>
+        <v>0.93205506384547498</v>
+      </c>
+      <c r="Y22" s="13">
+        <f t="shared" ref="Y22:AD22" si="5">CORREL($O$3:$O$18, Y$3:Y$18)</f>
+        <v>0.94794400775623955</v>
+      </c>
+      <c r="Z22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.9323051704532207</v>
+      </c>
+      <c r="AA22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.93749488416426818</v>
+      </c>
+      <c r="AB22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.92617854367911867</v>
+      </c>
+      <c r="AC22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.93031486245956696</v>
+      </c>
+      <c r="AD22" s="13">
+        <f t="shared" si="5"/>
+        <v>0.94556397954934046</v>
+      </c>
+      <c r="AE22" s="13">
+        <f>CORREL($O$3:$O$18, AE$3:AE$18)</f>
+        <v>0.94964075759692435</v>
+      </c>
+      <c r="AF22" s="15">
+        <f>CORREL($O$3:$O$18, AF$3:AF$18)</f>
+        <v>0.93321971458807329</v>
       </c>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
       <c r="W23" t="s">
         <v>75</v>
       </c>
-      <c r="X23" s="17">
-        <f>CORREL($O$3:$O$18, X$3:X$18)</f>
-        <v>0.93205506384547498</v>
-      </c>
-      <c r="Y23" s="17">
-        <f t="shared" ref="Y23:AE23" si="5">CORREL($O$3:$O$18, Y$3:Y$18)</f>
-        <v>0.94794400775623955</v>
-      </c>
-      <c r="Z23" s="17">
-        <f t="shared" si="5"/>
-        <v>0.9323051704532207</v>
-      </c>
-      <c r="AA23" s="17">
-        <f t="shared" si="5"/>
-        <v>0.93749488416426818</v>
-      </c>
-      <c r="AB23" s="17">
-        <f t="shared" si="5"/>
-        <v>0.92617854367911867</v>
-      </c>
-      <c r="AC23" s="17">
-        <f t="shared" si="5"/>
-        <v>0.93031486245956696</v>
-      </c>
-      <c r="AD23" s="17">
-        <f t="shared" si="5"/>
-        <v>0.94556397954934046</v>
-      </c>
-      <c r="AE23" s="17">
-        <f>CORREL($O$3:$O$18, AE$3:AE$18)</f>
-        <v>0.94964075759692435</v>
-      </c>
-      <c r="AF23" s="20">
-        <f>CORREL($O$3:$O$18, AF$3:AF$18)</f>
-        <v>0.93321971458807329</v>
+      <c r="X23" s="13">
+        <f>CORREL($Q$3:$Q$18, X$3:X$18)</f>
+        <v>0.96617919754543335</v>
+      </c>
+      <c r="Y23" s="13">
+        <f t="shared" ref="Y23:AF23" si="6">CORREL($Q$3:$Q$18, Y$3:Y$18)</f>
+        <v>0.96601642955120881</v>
+      </c>
+      <c r="Z23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.97179693321807825</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.97410322915554104</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.97142534644522438</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.96391915523012706</v>
+      </c>
+      <c r="AD23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.97622902389817601</v>
+      </c>
+      <c r="AE23" s="13">
+        <f t="shared" si="6"/>
+        <v>0.97772310630352843</v>
+      </c>
+      <c r="AF23" s="15">
+        <f t="shared" si="6"/>
+        <v>0.96668286512817092</v>
       </c>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
       <c r="W24" t="s">
         <v>76</v>
       </c>
-      <c r="X24" s="17">
-        <f>CORREL($P$3:$P$18, X$3:X$18)</f>
-        <v>0.92932641583354847</v>
-      </c>
-      <c r="Y24" s="17">
-        <f t="shared" ref="Y24:AD24" si="6">CORREL($P$3:$P$18, Y$3:Y$18)</f>
-        <v>0.94961260130641667</v>
-      </c>
-      <c r="Z24" s="17">
-        <f t="shared" si="6"/>
-        <v>0.93338662966002428</v>
-      </c>
-      <c r="AA24" s="17">
-        <f t="shared" si="6"/>
-        <v>0.94067819242748685</v>
-      </c>
-      <c r="AB24" s="17">
-        <f t="shared" si="6"/>
-        <v>0.92699754379767096</v>
-      </c>
-      <c r="AC24" s="17">
-        <f t="shared" si="6"/>
-        <v>0.92914780805109098</v>
-      </c>
-      <c r="AD24" s="17">
-        <f t="shared" si="6"/>
-        <v>0.94978827867238491</v>
-      </c>
-      <c r="AE24" s="17">
-        <f>CORREL($P$3:$P$18, AE$3:AE$18)</f>
-        <v>0.95360688482601697</v>
-      </c>
-      <c r="AF24" s="20">
-        <f>CORREL($P$3:$P$18, AF$3:AF$18)</f>
-        <v>0.93076263727181063</v>
+      <c r="X24" s="13">
+        <f>CORREL($U$3:$U$18, X$3:X$18)</f>
+        <v>0.98433071026592078</v>
+      </c>
+      <c r="Y24" s="13">
+        <f t="shared" ref="Y24:AF24" si="7">CORREL($U$3:$U$18, Y$3:Y$18)</f>
+        <v>0.98361273292990792</v>
+      </c>
+      <c r="Z24" s="13">
+        <f t="shared" si="7"/>
+        <v>0.98930929027750791</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" si="7"/>
+        <v>0.9886217546711995</v>
+      </c>
+      <c r="AB24" s="13">
+        <f t="shared" si="7"/>
+        <v>0.99007955378866686</v>
+      </c>
+      <c r="AC24" s="13">
+        <f t="shared" si="7"/>
+        <v>0.98467729278290039</v>
+      </c>
+      <c r="AD24" s="13">
+        <f t="shared" si="7"/>
+        <v>0.98670259840476249</v>
+      </c>
+      <c r="AE24" s="13">
+        <f t="shared" si="7"/>
+        <v>0.9852240603610406</v>
+      </c>
+      <c r="AF24" s="15">
+        <f t="shared" si="7"/>
+        <v>0.98411462503110303</v>
       </c>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="W25" t="s">
-        <v>77</v>
-      </c>
-      <c r="X25" s="17">
-        <f>CORREL($Q$3:$Q$18, X$3:X$18)</f>
-        <v>0.96617919754543335</v>
-      </c>
-      <c r="Y25" s="17">
-        <f t="shared" ref="Y25:AF25" si="7">CORREL($Q$3:$Q$18, Y$3:Y$18)</f>
-        <v>0.96601642955120881</v>
-      </c>
-      <c r="Z25" s="17">
-        <f t="shared" si="7"/>
-        <v>0.97179693321807825</v>
-      </c>
-      <c r="AA25" s="17">
-        <f t="shared" si="7"/>
-        <v>0.97410322915554104</v>
-      </c>
-      <c r="AB25" s="17">
-        <f t="shared" si="7"/>
-        <v>0.97142534644522438</v>
-      </c>
-      <c r="AC25" s="17">
-        <f t="shared" si="7"/>
-        <v>0.96391915523012706</v>
-      </c>
-      <c r="AD25" s="17">
-        <f t="shared" si="7"/>
-        <v>0.97622902389817601</v>
-      </c>
-      <c r="AE25" s="17">
-        <f t="shared" si="7"/>
-        <v>0.97772310630352843</v>
-      </c>
-      <c r="AF25" s="20">
-        <f t="shared" si="7"/>
-        <v>0.96668286512817092</v>
-      </c>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="15"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="W26" t="s">
-        <v>78</v>
-      </c>
-      <c r="X26" s="17">
-        <f>CORREL($U$3:$U$18, X$3:X$18)</f>
-        <v>0.98433071026592078</v>
-      </c>
-      <c r="Y26" s="17">
-        <f t="shared" ref="Y26:AF26" si="8">CORREL($U$3:$U$18, Y$3:Y$18)</f>
-        <v>0.98361273292990792</v>
-      </c>
-      <c r="Z26" s="17">
-        <f t="shared" si="8"/>
-        <v>0.98930929027750791</v>
-      </c>
-      <c r="AA26" s="17">
-        <f t="shared" si="8"/>
-        <v>0.9886217546711995</v>
-      </c>
-      <c r="AB26" s="17">
-        <f t="shared" si="8"/>
-        <v>0.99007955378866686</v>
-      </c>
-      <c r="AC26" s="17">
-        <f t="shared" si="8"/>
-        <v>0.98467729278290039</v>
-      </c>
-      <c r="AD26" s="17">
-        <f t="shared" si="8"/>
-        <v>0.98670259840476249</v>
-      </c>
-      <c r="AE26" s="17">
-        <f t="shared" si="8"/>
-        <v>0.9852240603610406</v>
-      </c>
-      <c r="AF26" s="20">
-        <f t="shared" si="8"/>
-        <v>0.98411462503110303</v>
+      <c r="A26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>25000</v>
+      </c>
+      <c r="C26">
+        <v>16000</v>
+      </c>
+      <c r="D26">
+        <v>0.27289999999999998</v>
+      </c>
+      <c r="E26" s="12">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="F26">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G26">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.13220000000000001</v>
+      </c>
+      <c r="I26">
+        <v>8.0217239731596002E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.1459</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.1031</v>
+      </c>
+      <c r="L26">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="M26">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="N26">
+        <v>0.71840000000000004</v>
+      </c>
+      <c r="O26">
+        <v>0.30134058672691499</v>
+      </c>
+      <c r="P26">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>0.18329999999999999</v>
+      </c>
+      <c r="R26">
+        <v>0.64790000000000003</v>
+      </c>
+      <c r="S26">
+        <v>0.6048</v>
+      </c>
+      <c r="T26">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="U26">
+        <v>0.33702160719007901</v>
+      </c>
+      <c r="V26">
+        <v>0.45019999999999999</v>
+      </c>
+      <c r="X26">
+        <v>19.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.46</v>
+      </c>
+      <c r="Z26">
+        <v>15.7</v>
+      </c>
+      <c r="AA26">
+        <v>44.3</v>
+      </c>
+      <c r="AB26">
+        <v>15.2</v>
+      </c>
+      <c r="AC26">
+        <v>43</v>
+      </c>
+      <c r="AD26">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="AE26">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AF26" s="10">
+        <v>20</v>
+      </c>
+      <c r="AG26">
+        <v>20.8</v>
+      </c>
+      <c r="AH26">
+        <v>18.2</v>
+      </c>
+      <c r="AI26">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="AJ26">
+        <v>52.3</v>
+      </c>
+      <c r="AK26">
+        <v>53.6</v>
+      </c>
+      <c r="AL26">
+        <v>50.3</v>
+      </c>
+      <c r="AM26">
+        <v>51.9</v>
+      </c>
+      <c r="AN26">
+        <v>25.8</v>
+      </c>
+      <c r="AO26">
+        <v>26.8</v>
+      </c>
+      <c r="AP26">
+        <v>25.1</v>
+      </c>
+      <c r="AQ26">
+        <v>26.2</v>
+      </c>
+      <c r="AR26">
+        <v>14.4</v>
+      </c>
+      <c r="AS26">
+        <v>15</v>
+      </c>
+      <c r="AT26">
+        <v>13.5</v>
+      </c>
+      <c r="AU26">
+        <v>14.1</v>
+      </c>
+      <c r="AV26">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="AW26">
+        <v>8.6</v>
+      </c>
+      <c r="AX26">
+        <v>7.3</v>
+      </c>
+      <c r="AY26">
+        <v>7.8</v>
       </c>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="W27" t="s">
-        <v>79</v>
-      </c>
-      <c r="X27" s="17">
-        <f>CORREL($V$3:$V$18, X$3:X$18)</f>
-        <v>0.98547748681459724</v>
-      </c>
-      <c r="Y27" s="17">
-        <f t="shared" ref="Y27:AF27" si="9">CORREL($V$3:$V$18, Y$3:Y$18)</f>
-        <v>0.98966188859846205</v>
-      </c>
-      <c r="Z27" s="17">
-        <f t="shared" si="9"/>
-        <v>0.99111860506554139</v>
-      </c>
-      <c r="AA27" s="17">
-        <f t="shared" si="9"/>
-        <v>0.99289204659213415</v>
-      </c>
-      <c r="AB27" s="17">
-        <f t="shared" si="9"/>
-        <v>0.99038482111722459</v>
-      </c>
-      <c r="AC27" s="17">
-        <f t="shared" si="9"/>
-        <v>0.98510622251591207</v>
-      </c>
-      <c r="AD27" s="17">
-        <f t="shared" si="9"/>
-        <v>0.99357834234431952</v>
-      </c>
-      <c r="AE27" s="17">
-        <f t="shared" si="9"/>
-        <v>0.99374879065686783</v>
-      </c>
-      <c r="AF27" s="20">
-        <f t="shared" si="9"/>
-        <v>0.98589885526479282</v>
+      <c r="A27" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27">
+        <v>50000</v>
+      </c>
+      <c r="C27">
+        <v>16000</v>
+      </c>
+      <c r="D27">
+        <v>0.35010000000000002</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F27">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="G27">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.182</v>
+      </c>
+      <c r="I27">
+        <v>0.10309038971476001</v>
+      </c>
+      <c r="J27">
+        <v>0.17929999999999999</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.2099</v>
+      </c>
+      <c r="L27">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="M27">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="N27">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="O27">
+        <v>0.36495720020823103</v>
+      </c>
+      <c r="P27">
+        <v>0.74619999999999997</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>0.254</v>
+      </c>
+      <c r="R27">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="S27">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="T27">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="U27">
+        <v>0.41620910527876298</v>
+      </c>
+      <c r="V27">
+        <v>0.52380000000000004</v>
+      </c>
+      <c r="X27">
+        <v>24.2</v>
+      </c>
+      <c r="Y27">
+        <v>0.51</v>
+      </c>
+      <c r="Z27">
+        <v>22.7</v>
+      </c>
+      <c r="AA27">
+        <v>50.2</v>
+      </c>
+      <c r="AB27">
+        <v>20.9</v>
+      </c>
+      <c r="AC27">
+        <v>47</v>
+      </c>
+      <c r="AD27">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="AE27">
+        <v>0.502</v>
+      </c>
+      <c r="AF27" s="10">
+        <v>24.8</v>
+      </c>
+      <c r="AG27">
+        <v>25.9</v>
+      </c>
+      <c r="AH27">
+        <v>23.1</v>
+      </c>
+      <c r="AI27">
+        <v>24.2</v>
+      </c>
+      <c r="AJ27">
+        <v>58.7</v>
+      </c>
+      <c r="AK27">
+        <v>60.4</v>
+      </c>
+      <c r="AL27">
+        <v>56.4</v>
+      </c>
+      <c r="AM27">
+        <v>58.3</v>
+      </c>
+      <c r="AN27">
+        <v>32.1</v>
+      </c>
+      <c r="AO27">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="AP27">
+        <v>31</v>
+      </c>
+      <c r="AQ27">
+        <v>32.4</v>
+      </c>
+      <c r="AR27">
+        <v>19.5</v>
+      </c>
+      <c r="AS27">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="AT27">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AU27">
+        <v>19.3</v>
+      </c>
+      <c r="AV27">
+        <v>12.1</v>
+      </c>
+      <c r="AW27">
+        <v>12.8</v>
+      </c>
+      <c r="AX27">
+        <v>11</v>
+      </c>
+      <c r="AY27">
+        <v>11.7</v>
       </c>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="20"/>
+      <c r="A28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28">
+        <v>75000</v>
+      </c>
+      <c r="C28">
+        <v>16000</v>
+      </c>
+      <c r="D28">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="E28" s="11">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="F28">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="H28">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.113296963140762</v>
+      </c>
+      <c r="J28">
+        <v>0.19270000000000001</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.2525</v>
+      </c>
+      <c r="L28">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="M28">
+        <v>8.2699999999999996E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.82709999999999995</v>
+      </c>
+      <c r="O28">
+        <v>0.38400244176896903</v>
+      </c>
+      <c r="P28">
+        <v>0.77259999999999995</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>0.2878</v>
+      </c>
+      <c r="R28">
+        <v>0.75170000000000003</v>
+      </c>
+      <c r="S28">
+        <v>0.72619999999999996</v>
+      </c>
+      <c r="T28">
+        <v>7.8200000000000006E-2</v>
+      </c>
+      <c r="U28">
+        <v>0.438361633317707</v>
+      </c>
+      <c r="V28">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="X28">
+        <v>26</v>
+      </c>
+      <c r="Y28">
+        <v>0.52</v>
+      </c>
+      <c r="Z28">
+        <v>25.5</v>
+      </c>
+      <c r="AA28">
+        <v>52.2</v>
+      </c>
+      <c r="AB28">
+        <v>23.1</v>
+      </c>
+      <c r="AC28">
+        <v>48.2</v>
+      </c>
+      <c r="AD28">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AE28">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="AF28" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="AG28">
+        <v>27.7</v>
+      </c>
+      <c r="AH28">
+        <v>24.9</v>
+      </c>
+      <c r="AI28">
+        <v>26</v>
+      </c>
+      <c r="AJ28">
+        <v>60.3</v>
+      </c>
+      <c r="AK28">
+        <v>62</v>
+      </c>
+      <c r="AL28">
+        <v>58.2</v>
+      </c>
+      <c r="AM28">
+        <v>60.1</v>
+      </c>
+      <c r="AN28">
+        <v>33.9</v>
+      </c>
+      <c r="AO28">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="AP28">
+        <v>33</v>
+      </c>
+      <c r="AQ28">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AR28">
+        <v>21.2</v>
+      </c>
+      <c r="AS28">
+        <v>22</v>
+      </c>
+      <c r="AT28">
+        <v>20</v>
+      </c>
+      <c r="AU28">
+        <v>21</v>
+      </c>
+      <c r="AV28">
+        <v>13.5</v>
+      </c>
+      <c r="AW28">
+        <v>14.2</v>
+      </c>
+      <c r="AX28">
+        <v>12.4</v>
+      </c>
+      <c r="AY28">
+        <v>13.1</v>
+      </c>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="C29">
         <v>16000</v>
       </c>
       <c r="D29">
-        <v>0.27289999999999998</v>
-      </c>
-      <c r="E29" s="16">
-        <v>8.0000000000000004E-4</v>
+        <v>0.39879999999999999</v>
+      </c>
+      <c r="E29" s="11">
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F29">
-        <v>1.84E-2</v>
+        <v>2.93E-2</v>
       </c>
       <c r="G29">
-        <v>1.32E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="H29">
-        <v>0.13220000000000001</v>
+        <v>0.2046</v>
       </c>
       <c r="I29">
-        <v>8.0217239731596002E-2</v>
+        <v>0.119333608322904</v>
       </c>
       <c r="J29">
-        <v>0.1459</v>
-      </c>
-      <c r="K29" s="15">
-        <v>0.1031</v>
+        <v>0.1991</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.29799999999999999</v>
       </c>
       <c r="L29">
-        <v>0.13619999999999999</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="M29">
-        <v>7.1800000000000003E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="N29">
-        <v>0.71840000000000004</v>
+        <v>0.85</v>
       </c>
       <c r="O29">
-        <v>0.30134058672691499</v>
+        <v>0.39648046868345099</v>
       </c>
       <c r="P29">
-        <v>0.65859999999999996</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>0.18329999999999999</v>
+        <v>0.79090000000000005</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>0.29730000000000001</v>
       </c>
       <c r="R29">
-        <v>0.64790000000000003</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="S29">
-        <v>0.6048</v>
+        <v>0.73560000000000003</v>
       </c>
       <c r="T29">
-        <v>6.4899999999999999E-2</v>
+        <v>7.9600000000000004E-2</v>
       </c>
       <c r="U29">
-        <v>0.33702160719007901</v>
+        <v>0.469834046815233</v>
       </c>
       <c r="V29">
-        <v>0.45019999999999999</v>
+        <v>0.57020000000000004</v>
       </c>
       <c r="X29">
-        <v>19.5</v>
+        <v>28.2</v>
       </c>
       <c r="Y29">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="Z29">
-        <v>15.7</v>
+        <v>27.8</v>
       </c>
       <c r="AA29">
-        <v>44.3</v>
+        <v>54.3</v>
       </c>
       <c r="AB29">
-        <v>15.2</v>
+        <v>24.9</v>
       </c>
       <c r="AC29">
-        <v>43</v>
+        <v>49.5</v>
       </c>
       <c r="AD29">
-        <v>0.46500000000000002</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="AE29">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="AF29" s="14">
-        <v>20</v>
+        <v>0.54</v>
+      </c>
+      <c r="AF29" s="10">
+        <v>28.9</v>
       </c>
       <c r="AG29">
-        <v>20.8</v>
+        <v>29.9</v>
       </c>
       <c r="AH29">
-        <v>18.2</v>
+        <v>27</v>
       </c>
       <c r="AI29">
-        <v>19.100000000000001</v>
+        <v>28.2</v>
       </c>
       <c r="AJ29">
-        <v>52.3</v>
+        <v>61.6</v>
       </c>
       <c r="AK29">
-        <v>53.6</v>
+        <v>63.3</v>
       </c>
       <c r="AL29">
-        <v>50.3</v>
+        <v>59.5</v>
       </c>
       <c r="AM29">
-        <v>51.9</v>
+        <v>61.5</v>
       </c>
       <c r="AN29">
-        <v>25.8</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="AO29">
-        <v>26.8</v>
+        <v>37</v>
       </c>
       <c r="AP29">
-        <v>25.1</v>
+        <v>34.6</v>
       </c>
       <c r="AQ29">
-        <v>26.2</v>
+        <v>36</v>
       </c>
       <c r="AR29">
+        <v>22.8</v>
+      </c>
+      <c r="AS29">
+        <v>23.7</v>
+      </c>
+      <c r="AT29">
+        <v>21.5</v>
+      </c>
+      <c r="AU29">
+        <v>22.5</v>
+      </c>
+      <c r="AV29">
+        <v>15</v>
+      </c>
+      <c r="AW29">
+        <v>15.6</v>
+      </c>
+      <c r="AX29">
+        <v>13.7</v>
+      </c>
+      <c r="AY29">
         <v>14.4</v>
-      </c>
-      <c r="AS29">
-        <v>15</v>
-      </c>
-      <c r="AT29">
-        <v>13.5</v>
-      </c>
-      <c r="AU29">
-        <v>14.1</v>
-      </c>
-      <c r="AV29">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="AW29">
-        <v>8.6</v>
-      </c>
-      <c r="AX29">
-        <v>7.3</v>
-      </c>
-      <c r="AY29">
-        <v>7.8</v>
       </c>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
@@ -18403,151 +18649,151 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="C30">
         <v>16000</v>
       </c>
       <c r="D30">
-        <v>0.35010000000000002</v>
-      </c>
-      <c r="E30" s="15">
-        <v>1.5E-3</v>
+        <v>0.3957</v>
+      </c>
+      <c r="E30" s="11">
+        <v>2.3E-3</v>
       </c>
       <c r="F30">
-        <v>2.6200000000000001E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G30">
-        <v>1.8200000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H30">
-        <v>0.182</v>
+        <v>0.18959999999999999</v>
       </c>
       <c r="I30">
-        <v>0.10309038971476001</v>
+        <v>0.114781214667264</v>
       </c>
       <c r="J30">
-        <v>0.17929999999999999</v>
-      </c>
-      <c r="K30" s="15">
-        <v>0.2099</v>
+        <v>0.19020000000000001</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.29930000000000001</v>
       </c>
       <c r="L30">
-        <v>0.15409999999999999</v>
+        <v>0.1643</v>
       </c>
       <c r="M30">
-        <v>8.0299999999999996E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="N30">
-        <v>0.80300000000000005</v>
+        <v>0.85150000000000003</v>
       </c>
       <c r="O30">
-        <v>0.36495720020823103</v>
+        <v>0.400423537323643</v>
       </c>
       <c r="P30">
-        <v>0.74619999999999997</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>0.254</v>
+        <v>0.79220000000000002</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0.30330000000000001</v>
       </c>
       <c r="R30">
-        <v>0.72599999999999998</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="S30">
-        <v>0.69520000000000004</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="T30">
-        <v>7.5499999999999998E-2</v>
+        <v>8.1199999999999994E-2</v>
       </c>
       <c r="U30">
-        <v>0.41620910527876298</v>
+        <v>0.460881393059136</v>
       </c>
       <c r="V30">
-        <v>0.52380000000000004</v>
+        <v>0.56669999999999998</v>
       </c>
       <c r="X30">
-        <v>24.2</v>
+        <v>28.1</v>
       </c>
       <c r="Y30">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="Z30">
+        <v>27.9</v>
+      </c>
+      <c r="AA30">
+        <v>54.2</v>
+      </c>
+      <c r="AB30">
+        <v>25</v>
+      </c>
+      <c r="AC30">
+        <v>49.6</v>
+      </c>
+      <c r="AD30">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AE30">
+        <v>0.54</v>
+      </c>
+      <c r="AF30" s="10">
+        <v>28.8</v>
+      </c>
+      <c r="AG30">
+        <v>29.8</v>
+      </c>
+      <c r="AH30">
+        <v>27</v>
+      </c>
+      <c r="AI30">
+        <v>28.2</v>
+      </c>
+      <c r="AJ30">
+        <v>61.3</v>
+      </c>
+      <c r="AK30">
+        <v>63</v>
+      </c>
+      <c r="AL30">
+        <v>59.5</v>
+      </c>
+      <c r="AM30">
+        <v>61.5</v>
+      </c>
+      <c r="AN30">
+        <v>35.5</v>
+      </c>
+      <c r="AO30">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AP30">
+        <v>34.6</v>
+      </c>
+      <c r="AQ30">
+        <v>36</v>
+      </c>
+      <c r="AR30">
         <v>22.7</v>
       </c>
-      <c r="AA30">
-        <v>50.2</v>
-      </c>
-      <c r="AB30">
-        <v>20.9</v>
-      </c>
-      <c r="AC30">
-        <v>47</v>
-      </c>
-      <c r="AD30">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="AE30">
-        <v>0.502</v>
-      </c>
-      <c r="AF30" s="14">
-        <v>24.8</v>
-      </c>
-      <c r="AG30">
-        <v>25.9</v>
-      </c>
-      <c r="AH30">
-        <v>23.1</v>
-      </c>
-      <c r="AI30">
-        <v>24.2</v>
-      </c>
-      <c r="AJ30">
-        <v>58.7</v>
-      </c>
-      <c r="AK30">
-        <v>60.4</v>
-      </c>
-      <c r="AL30">
-        <v>56.4</v>
-      </c>
-      <c r="AM30">
-        <v>58.3</v>
-      </c>
-      <c r="AN30">
-        <v>32.1</v>
-      </c>
-      <c r="AO30">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="AP30">
-        <v>31</v>
-      </c>
-      <c r="AQ30">
-        <v>32.4</v>
-      </c>
-      <c r="AR30">
-        <v>19.5</v>
-      </c>
       <c r="AS30">
-        <v>20.399999999999999</v>
+        <v>23.6</v>
       </c>
       <c r="AT30">
-        <v>18.399999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="AU30">
-        <v>19.3</v>
+        <v>22.6</v>
       </c>
       <c r="AV30">
-        <v>12.1</v>
+        <v>14.8</v>
       </c>
       <c r="AW30">
-        <v>12.8</v>
+        <v>15.5</v>
       </c>
       <c r="AX30">
-        <v>11</v>
+        <v>13.7</v>
       </c>
       <c r="AY30">
-        <v>11.7</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
@@ -18555,151 +18801,151 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="C31">
         <v>16000</v>
       </c>
       <c r="D31">
-        <v>0.37909999999999999</v>
-      </c>
-      <c r="E31" s="15">
-        <v>2.0999999999999999E-3</v>
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="E31" s="11">
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="F31">
-        <v>2.7900000000000001E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="G31">
-        <v>1.9599999999999999E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>0.19600000000000001</v>
+        <v>0.20219999999999999</v>
       </c>
       <c r="I31">
-        <v>0.113296963140762</v>
+        <v>0.120583499096515</v>
       </c>
       <c r="J31">
-        <v>0.19270000000000001</v>
-      </c>
-      <c r="K31" s="15">
-        <v>0.2525</v>
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.3357</v>
       </c>
       <c r="L31">
-        <v>0.15970000000000001</v>
+        <v>0.1673</v>
       </c>
       <c r="M31">
-        <v>8.2699999999999996E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="N31">
-        <v>0.82709999999999995</v>
+        <v>0.86429999999999996</v>
       </c>
       <c r="O31">
-        <v>0.38400244176896903</v>
+        <v>0.40763781980494701</v>
       </c>
       <c r="P31">
-        <v>0.77259999999999995</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>0.2878</v>
+        <v>0.80979999999999996</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0.32890000000000003</v>
       </c>
       <c r="R31">
-        <v>0.75170000000000003</v>
+        <v>0.77949999999999997</v>
       </c>
       <c r="S31">
-        <v>0.72619999999999996</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="T31">
-        <v>7.8200000000000006E-2</v>
+        <v>8.2900000000000001E-2</v>
       </c>
       <c r="U31">
-        <v>0.438361633317707</v>
+        <v>0.48067972261511299</v>
       </c>
       <c r="V31">
-        <v>0.55149999999999999</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="X31">
-        <v>26</v>
+        <v>28.8</v>
       </c>
       <c r="Y31">
-        <v>0.52</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z31">
-        <v>25.5</v>
+        <v>29</v>
       </c>
       <c r="AA31">
-        <v>52.2</v>
+        <v>55.1</v>
       </c>
       <c r="AB31">
-        <v>23.1</v>
+        <v>25.9</v>
       </c>
       <c r="AC31">
-        <v>48.2</v>
+        <v>50.2</v>
       </c>
       <c r="AD31">
-        <v>0.53500000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AE31">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="AF31" s="14">
-        <v>26.7</v>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="AF31" s="10">
+        <v>29.5</v>
       </c>
       <c r="AG31">
-        <v>27.7</v>
+        <v>30.7</v>
       </c>
       <c r="AH31">
-        <v>24.9</v>
+        <v>27.8</v>
       </c>
       <c r="AI31">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ31">
-        <v>60.3</v>
+        <v>62.4</v>
       </c>
       <c r="AK31">
-        <v>62</v>
+        <v>64.2</v>
       </c>
       <c r="AL31">
-        <v>58.2</v>
+        <v>60.4</v>
       </c>
       <c r="AM31">
-        <v>60.1</v>
+        <v>62.5</v>
       </c>
       <c r="AN31">
-        <v>33.9</v>
+        <v>36.6</v>
       </c>
       <c r="AO31">
-        <v>35.200000000000003</v>
+        <v>37.9</v>
       </c>
       <c r="AP31">
-        <v>33</v>
+        <v>35.6</v>
       </c>
       <c r="AQ31">
-        <v>34.299999999999997</v>
+        <v>37</v>
       </c>
       <c r="AR31">
-        <v>21.2</v>
+        <v>23.6</v>
       </c>
       <c r="AS31">
-        <v>22</v>
+        <v>24.6</v>
       </c>
       <c r="AT31">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="AU31">
-        <v>21</v>
+        <v>23.5</v>
       </c>
       <c r="AV31">
-        <v>13.5</v>
+        <v>15.6</v>
       </c>
       <c r="AW31">
-        <v>14.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AX31">
-        <v>12.4</v>
+        <v>14.4</v>
       </c>
       <c r="AY31">
-        <v>13.1</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
@@ -18707,151 +18953,151 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="C32">
         <v>16000</v>
       </c>
       <c r="D32">
-        <v>0.39879999999999999</v>
-      </c>
-      <c r="E32" s="15">
-        <v>2.3999999999999998E-3</v>
+        <v>0.41889999999999999</v>
+      </c>
+      <c r="E32" s="11">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="F32">
-        <v>2.93E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="G32">
-        <v>2.0500000000000001E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="H32">
-        <v>0.2046</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="I32">
-        <v>0.119333608322904</v>
+        <v>0.124609581248128</v>
       </c>
       <c r="J32">
-        <v>0.1991</v>
-      </c>
-      <c r="K32" s="15">
-        <v>0.29799999999999999</v>
+        <v>0.2044</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.33600000000000002</v>
       </c>
       <c r="L32">
-        <v>0.16400000000000001</v>
+        <v>0.16789999999999999</v>
       </c>
       <c r="M32">
-        <v>8.5000000000000006E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="N32">
-        <v>0.85</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="O32">
-        <v>0.39648046868345099</v>
+        <v>0.41345632753716899</v>
       </c>
       <c r="P32">
-        <v>0.79090000000000005</v>
-      </c>
-      <c r="Q32" s="15">
-        <v>0.29730000000000001</v>
+        <v>0.81059999999999999</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0.33729999999999999</v>
       </c>
       <c r="R32">
-        <v>0.76300000000000001</v>
+        <v>0.76990000000000003</v>
       </c>
       <c r="S32">
-        <v>0.73560000000000003</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="T32">
-        <v>7.9600000000000004E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="U32">
-        <v>0.469834046815233</v>
+        <v>0.48328619773544002</v>
       </c>
       <c r="V32">
-        <v>0.57020000000000004</v>
+        <v>0.58909999999999996</v>
       </c>
       <c r="X32">
-        <v>28.2</v>
+        <v>30</v>
       </c>
       <c r="Y32">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z32">
-        <v>27.8</v>
+        <v>30.9</v>
       </c>
       <c r="AA32">
-        <v>54.3</v>
+        <v>56.2</v>
       </c>
       <c r="AB32">
-        <v>24.9</v>
+        <v>27.3</v>
       </c>
       <c r="AC32">
-        <v>49.5</v>
+        <v>50.9</v>
       </c>
       <c r="AD32">
-        <v>0.55200000000000005</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="AE32">
-        <v>0.54</v>
-      </c>
-      <c r="AF32" s="14">
-        <v>28.9</v>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AF32" s="10">
+        <v>30.6</v>
       </c>
       <c r="AG32">
-        <v>29.9</v>
+        <v>31.8</v>
       </c>
       <c r="AH32">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI32">
-        <v>28.2</v>
+        <v>30.2</v>
       </c>
       <c r="AJ32">
-        <v>61.6</v>
+        <v>63.3</v>
       </c>
       <c r="AK32">
-        <v>63.3</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="AL32">
-        <v>59.5</v>
+        <v>61.4</v>
       </c>
       <c r="AM32">
-        <v>61.5</v>
+        <v>63.4</v>
       </c>
       <c r="AN32">
-        <v>35.700000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AO32">
-        <v>37</v>
+        <v>39.1</v>
       </c>
       <c r="AP32">
-        <v>34.6</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="AQ32">
-        <v>36</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="AR32">
-        <v>22.8</v>
+        <v>24.7</v>
       </c>
       <c r="AS32">
-        <v>23.7</v>
+        <v>25.7</v>
       </c>
       <c r="AT32">
-        <v>21.5</v>
+        <v>23.6</v>
       </c>
       <c r="AU32">
-        <v>22.5</v>
+        <v>24.6</v>
       </c>
       <c r="AV32">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AW32">
-        <v>15.6</v>
+        <v>17.2</v>
       </c>
       <c r="AX32">
-        <v>13.7</v>
+        <v>15.3</v>
       </c>
       <c r="AY32">
-        <v>14.4</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.2">
@@ -18859,151 +19105,151 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>125000</v>
+        <v>200000</v>
       </c>
       <c r="C33">
         <v>16000</v>
       </c>
       <c r="D33">
-        <v>0.3957</v>
-      </c>
-      <c r="E33" s="15">
-        <v>2.3E-3</v>
+        <v>0.42959999999999998</v>
+      </c>
+      <c r="E33" s="11">
+        <v>3.0999999999999999E-3</v>
       </c>
       <c r="F33">
-        <v>2.7E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="G33">
-        <v>1.9E-2</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="H33">
-        <v>0.18959999999999999</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="I33">
-        <v>0.114781214667264</v>
+        <v>0.120807125779104</v>
       </c>
       <c r="J33">
-        <v>0.19020000000000001</v>
-      </c>
-      <c r="K33" s="15">
-        <v>0.29930000000000001</v>
+        <v>0.2074</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.33929999999999999</v>
       </c>
       <c r="L33">
-        <v>0.1643</v>
+        <v>0.1686</v>
       </c>
       <c r="M33">
-        <v>8.5199999999999998E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="N33">
-        <v>0.85150000000000003</v>
+        <v>0.87019999999999997</v>
       </c>
       <c r="O33">
-        <v>0.400423537323643</v>
+        <v>0.41634326676657601</v>
       </c>
       <c r="P33">
-        <v>0.79220000000000002</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>0.30330000000000001</v>
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>0.34889999999999999</v>
       </c>
       <c r="R33">
+        <v>0.77529999999999999</v>
+      </c>
+      <c r="S33">
         <v>0.75890000000000002</v>
       </c>
-      <c r="S33">
-        <v>0.73219999999999996</v>
-      </c>
       <c r="T33">
-        <v>8.1199999999999994E-2</v>
+        <v>8.6599999999999996E-2</v>
       </c>
       <c r="U33">
-        <v>0.460881393059136</v>
+        <v>0.50008746074704102</v>
       </c>
       <c r="V33">
-        <v>0.56669999999999998</v>
+        <v>0.59860000000000002</v>
       </c>
       <c r="X33">
-        <v>28.1</v>
+        <v>30.5</v>
       </c>
       <c r="Y33">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z33">
-        <v>27.9</v>
+        <v>31.3</v>
       </c>
       <c r="AA33">
-        <v>54.2</v>
+        <v>56.7</v>
       </c>
       <c r="AB33">
-        <v>25</v>
+        <v>27.6</v>
       </c>
       <c r="AC33">
-        <v>49.6</v>
+        <v>51.2</v>
       </c>
       <c r="AD33">
-        <v>0.55100000000000005</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="AE33">
-        <v>0.54</v>
-      </c>
-      <c r="AF33" s="14">
-        <v>28.8</v>
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="AF33" s="10">
+        <v>31.2</v>
       </c>
       <c r="AG33">
-        <v>29.8</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="AH33">
-        <v>27</v>
+        <v>29.5</v>
       </c>
       <c r="AI33">
-        <v>28.2</v>
+        <v>30.8</v>
       </c>
       <c r="AJ33">
-        <v>61.3</v>
+        <v>64</v>
       </c>
       <c r="AK33">
-        <v>63</v>
+        <v>65.7</v>
       </c>
       <c r="AL33">
-        <v>59.5</v>
+        <v>62</v>
       </c>
       <c r="AM33">
-        <v>61.5</v>
+        <v>64</v>
       </c>
       <c r="AN33">
-        <v>35.5</v>
+        <v>38.5</v>
       </c>
       <c r="AO33">
-        <v>36.799999999999997</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="AP33">
-        <v>34.6</v>
+        <v>37.4</v>
       </c>
       <c r="AQ33">
-        <v>36</v>
+        <v>38.9</v>
       </c>
       <c r="AR33">
-        <v>22.7</v>
+        <v>25.3</v>
       </c>
       <c r="AS33">
-        <v>23.6</v>
+        <v>26.3</v>
       </c>
       <c r="AT33">
-        <v>21.6</v>
+        <v>24.2</v>
       </c>
       <c r="AU33">
-        <v>22.6</v>
+        <v>25.2</v>
       </c>
       <c r="AV33">
-        <v>14.8</v>
+        <v>17</v>
       </c>
       <c r="AW33">
-        <v>15.5</v>
+        <v>17.8</v>
       </c>
       <c r="AX33">
-        <v>13.7</v>
+        <v>15.8</v>
       </c>
       <c r="AY33">
-        <v>14.4</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.2">
@@ -19011,151 +19257,151 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>150000</v>
+        <v>25000</v>
       </c>
       <c r="C34">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="D34">
-        <v>0.41310000000000002</v>
-      </c>
-      <c r="E34" s="15">
-        <v>2.7000000000000001E-3</v>
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F34">
-        <v>2.8899999999999999E-2</v>
+        <v>1.04E-2</v>
       </c>
       <c r="G34">
-        <v>2.0199999999999999E-2</v>
+        <v>7.4000000000000003E-3</v>
       </c>
       <c r="H34">
-        <v>0.20219999999999999</v>
+        <v>7.4399999999999994E-2</v>
       </c>
       <c r="I34">
-        <v>0.120583499096515</v>
+        <v>5.6079759090787898E-2</v>
       </c>
       <c r="J34">
-        <v>0.20269999999999999</v>
-      </c>
-      <c r="K34" s="15">
-        <v>0.3357</v>
+        <v>9.3299999999999994E-2</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1.52E-2</v>
       </c>
       <c r="L34">
-        <v>0.1673</v>
+        <v>8.9899999999999994E-2</v>
       </c>
       <c r="M34">
-        <v>8.6400000000000005E-2</v>
+        <v>5.0200000000000002E-2</v>
       </c>
       <c r="N34">
-        <v>0.86429999999999996</v>
+        <v>0.50229999999999997</v>
       </c>
       <c r="O34">
-        <v>0.40763781980494701</v>
+        <v>0.18491267733175601</v>
       </c>
       <c r="P34">
-        <v>0.80979999999999996</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>0.32890000000000003</v>
+        <v>0.44729999999999998</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>0.1477</v>
       </c>
       <c r="R34">
-        <v>0.77949999999999997</v>
+        <v>0.62480000000000002</v>
       </c>
       <c r="S34">
-        <v>0.74790000000000001</v>
+        <v>0.58620000000000005</v>
       </c>
       <c r="T34">
-        <v>8.2900000000000001E-2</v>
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="U34">
-        <v>0.48067972261511299</v>
+        <v>0.31872591788305699</v>
       </c>
       <c r="V34">
-        <v>0.58199999999999996</v>
+        <v>0.42209999999999998</v>
       </c>
       <c r="X34">
-        <v>28.8</v>
+        <v>18</v>
       </c>
       <c r="Y34">
-        <v>0.55000000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="Z34">
-        <v>29</v>
+        <v>13.6</v>
       </c>
       <c r="AA34">
-        <v>55.1</v>
+        <v>42.4</v>
       </c>
       <c r="AB34">
-        <v>25.9</v>
+        <v>14</v>
       </c>
       <c r="AC34">
-        <v>50.2</v>
+        <v>42.5</v>
       </c>
       <c r="AD34">
-        <v>0.56000000000000005</v>
+        <v>0.442</v>
       </c>
       <c r="AE34">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="AF34" s="14">
-        <v>29.5</v>
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="AF34" s="10">
+        <v>18.5</v>
       </c>
       <c r="AG34">
-        <v>30.7</v>
+        <v>19</v>
       </c>
       <c r="AH34">
-        <v>27.8</v>
+        <v>16.7</v>
       </c>
       <c r="AI34">
-        <v>29</v>
+        <v>17.3</v>
       </c>
       <c r="AJ34">
-        <v>62.4</v>
+        <v>51.8</v>
       </c>
       <c r="AK34">
-        <v>64.2</v>
+        <v>52.9</v>
       </c>
       <c r="AL34">
-        <v>60.4</v>
+        <v>48.8</v>
       </c>
       <c r="AM34">
-        <v>62.5</v>
+        <v>50.1</v>
       </c>
       <c r="AN34">
-        <v>36.6</v>
+        <v>24.9</v>
       </c>
       <c r="AO34">
-        <v>37.9</v>
+        <v>25.6</v>
       </c>
       <c r="AP34">
-        <v>35.6</v>
+        <v>23.7</v>
       </c>
       <c r="AQ34">
-        <v>37</v>
+        <v>24.5</v>
       </c>
       <c r="AR34">
-        <v>23.6</v>
+        <v>13.6</v>
       </c>
       <c r="AS34">
-        <v>24.6</v>
+        <v>14.1</v>
       </c>
       <c r="AT34">
-        <v>22.5</v>
+        <v>12.4</v>
       </c>
       <c r="AU34">
-        <v>23.5</v>
+        <v>12.9</v>
       </c>
       <c r="AV34">
-        <v>15.6</v>
+        <v>7.7</v>
       </c>
       <c r="AW34">
-        <v>16.399999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="AX34">
-        <v>14.4</v>
+        <v>6.7</v>
       </c>
       <c r="AY34">
-        <v>15.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.2">
@@ -19163,151 +19409,151 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>175000</v>
+        <v>50000</v>
       </c>
       <c r="C35">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="D35">
-        <v>0.41889999999999999</v>
-      </c>
-      <c r="E35" s="15">
-        <v>2.8999999999999998E-3</v>
+        <v>0.35189999999999999</v>
+      </c>
+      <c r="E35" s="12">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F35">
-        <v>3.0200000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="G35">
-        <v>2.1299999999999999E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="H35">
-        <v>0.21299999999999999</v>
+        <v>0.1246</v>
       </c>
       <c r="I35">
-        <v>0.124609581248128</v>
+        <v>8.2014642202872495E-2</v>
       </c>
       <c r="J35">
-        <v>0.2044</v>
-      </c>
-      <c r="K35" s="15">
-        <v>0.33600000000000002</v>
+        <v>0.1404</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.122</v>
       </c>
       <c r="L35">
-        <v>0.16789999999999999</v>
+        <v>0.13730000000000001</v>
       </c>
       <c r="M35">
-        <v>8.6699999999999999E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="N35">
-        <v>0.86699999999999999</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="O35">
-        <v>0.41345632753716899</v>
+        <v>0.31039647769832202</v>
       </c>
       <c r="P35">
-        <v>0.81059999999999999</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>0.33729999999999999</v>
+        <v>0.66879999999999995</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>0.25750000000000001</v>
       </c>
       <c r="R35">
-        <v>0.76990000000000003</v>
+        <v>0.6966</v>
       </c>
       <c r="S35">
-        <v>0.74450000000000005</v>
+        <v>0.66210000000000002</v>
       </c>
       <c r="T35">
-        <v>8.4699999999999998E-2</v>
+        <v>7.0099999999999996E-2</v>
       </c>
       <c r="U35">
-        <v>0.48328619773544002</v>
+        <v>0.41438037226825802</v>
       </c>
       <c r="V35">
-        <v>0.58909999999999996</v>
+        <v>0.5252</v>
       </c>
       <c r="X35">
+        <v>23.3</v>
+      </c>
+      <c r="Y35">
+        <v>0.49</v>
+      </c>
+      <c r="Z35">
+        <v>21.3</v>
+      </c>
+      <c r="AA35">
+        <v>49.1</v>
+      </c>
+      <c r="AB35">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AC35">
+        <v>46.4</v>
+      </c>
+      <c r="AD35">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="AE35">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>23.9</v>
+      </c>
+      <c r="AG35">
+        <v>24.7</v>
+      </c>
+      <c r="AH35">
+        <v>22.1</v>
+      </c>
+      <c r="AI35">
+        <v>23</v>
+      </c>
+      <c r="AJ35">
+        <v>57.2</v>
+      </c>
+      <c r="AK35">
+        <v>58.5</v>
+      </c>
+      <c r="AL35">
+        <v>55.7</v>
+      </c>
+      <c r="AM35">
+        <v>57.3</v>
+      </c>
+      <c r="AN35">
+        <v>30.5</v>
+      </c>
+      <c r="AO35">
+        <v>31.6</v>
+      </c>
+      <c r="AP35">
         <v>30</v>
       </c>
-      <c r="Y35">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Z35">
-        <v>30.9</v>
-      </c>
-      <c r="AA35">
-        <v>56.2</v>
-      </c>
-      <c r="AB35">
-        <v>27.3</v>
-      </c>
-      <c r="AC35">
-        <v>50.9</v>
-      </c>
-      <c r="AD35">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="AE35">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="AF35" s="14">
-        <v>30.6</v>
-      </c>
-      <c r="AG35">
-        <v>31.8</v>
-      </c>
-      <c r="AH35">
-        <v>29</v>
-      </c>
-      <c r="AI35">
-        <v>30.2</v>
-      </c>
-      <c r="AJ35">
-        <v>63.3</v>
-      </c>
-      <c r="AK35">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="AL35">
-        <v>61.4</v>
-      </c>
-      <c r="AM35">
-        <v>63.4</v>
-      </c>
-      <c r="AN35">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AO35">
-        <v>39.1</v>
-      </c>
-      <c r="AP35">
-        <v>36.799999999999997</v>
-      </c>
       <c r="AQ35">
-        <v>38.200000000000003</v>
+        <v>31.1</v>
       </c>
       <c r="AR35">
-        <v>24.7</v>
+        <v>18.3</v>
       </c>
       <c r="AS35">
-        <v>25.7</v>
+        <v>19</v>
       </c>
       <c r="AT35">
-        <v>23.6</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="AU35">
-        <v>24.6</v>
+        <v>18.2</v>
       </c>
       <c r="AV35">
-        <v>16.5</v>
+        <v>11.2</v>
       </c>
       <c r="AW35">
-        <v>17.2</v>
+        <v>11.7</v>
       </c>
       <c r="AX35">
-        <v>15.3</v>
+        <v>10.3</v>
       </c>
       <c r="AY35">
-        <v>16.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.2">
@@ -19315,151 +19561,151 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="C36">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="D36">
-        <v>0.42959999999999998</v>
-      </c>
-      <c r="E36" s="15">
-        <v>3.0999999999999999E-3</v>
+        <v>0.3957</v>
+      </c>
+      <c r="E36" s="11">
+        <v>1.4E-3</v>
       </c>
       <c r="F36">
-        <v>2.9899999999999999E-2</v>
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="G36">
-        <v>2.1299999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="H36">
-        <v>0.21279999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="I36">
-        <v>0.120807125779104</v>
+        <v>0.102513232535606</v>
       </c>
       <c r="J36">
-        <v>0.2074</v>
-      </c>
-      <c r="K36" s="15">
-        <v>0.33929999999999999</v>
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0.2051</v>
       </c>
       <c r="L36">
-        <v>0.1686</v>
+        <v>0.15240000000000001</v>
       </c>
       <c r="M36">
-        <v>8.6999999999999994E-2</v>
+        <v>0.08</v>
       </c>
       <c r="N36">
-        <v>0.87019999999999997</v>
+        <v>0.79959999999999998</v>
       </c>
       <c r="O36">
-        <v>0.41634326676657601</v>
+        <v>0.35389804116293899</v>
       </c>
       <c r="P36">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>0.34889999999999999</v>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>0.2928</v>
       </c>
       <c r="R36">
-        <v>0.77529999999999999</v>
+        <v>0.76280000000000003</v>
       </c>
       <c r="S36">
-        <v>0.75890000000000002</v>
+        <v>0.72829999999999995</v>
       </c>
       <c r="T36">
-        <v>8.6599999999999996E-2</v>
+        <v>7.7700000000000005E-2</v>
       </c>
       <c r="U36">
-        <v>0.50008746074704102</v>
+        <v>0.45277479496332501</v>
       </c>
       <c r="V36">
-        <v>0.59860000000000002</v>
+        <v>0.5665</v>
       </c>
       <c r="X36">
-        <v>30.5</v>
+        <v>26.4</v>
       </c>
       <c r="Y36">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="Z36">
-        <v>31.3</v>
+        <v>25.7</v>
       </c>
       <c r="AA36">
-        <v>56.7</v>
+        <v>52.6</v>
       </c>
       <c r="AB36">
-        <v>27.6</v>
+        <v>23.3</v>
       </c>
       <c r="AC36">
-        <v>51.2</v>
+        <v>48.5</v>
       </c>
       <c r="AD36">
-        <v>0.57299999999999995</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="AE36">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="AF36" s="14">
-        <v>31.2</v>
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AF36" s="10">
+        <v>27</v>
       </c>
       <c r="AG36">
-        <v>32.299999999999997</v>
+        <v>28</v>
       </c>
       <c r="AH36">
-        <v>29.5</v>
+        <v>25.3</v>
       </c>
       <c r="AI36">
-        <v>30.8</v>
+        <v>26.4</v>
       </c>
       <c r="AJ36">
-        <v>64</v>
+        <v>60.6</v>
       </c>
       <c r="AK36">
-        <v>65.7</v>
+        <v>62.2</v>
       </c>
       <c r="AL36">
-        <v>62</v>
+        <v>58.6</v>
       </c>
       <c r="AM36">
-        <v>64</v>
+        <v>60.5</v>
       </c>
       <c r="AN36">
-        <v>38.5</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="AO36">
-        <v>39.799999999999997</v>
+        <v>35.4</v>
       </c>
       <c r="AP36">
-        <v>37.4</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="AQ36">
-        <v>38.9</v>
+        <v>34.6</v>
       </c>
       <c r="AR36">
-        <v>25.3</v>
+        <v>21.5</v>
       </c>
       <c r="AS36">
-        <v>26.3</v>
+        <v>22.3</v>
       </c>
       <c r="AT36">
-        <v>24.2</v>
+        <v>20.3</v>
       </c>
       <c r="AU36">
-        <v>25.2</v>
+        <v>21.2</v>
       </c>
       <c r="AV36">
-        <v>17</v>
+        <v>13.7</v>
       </c>
       <c r="AW36">
-        <v>17.8</v>
+        <v>14.3</v>
       </c>
       <c r="AX36">
-        <v>15.8</v>
+        <v>12.6</v>
       </c>
       <c r="AY36">
-        <v>16.7</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.2">
@@ -19467,151 +19713,151 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>25000</v>
+        <v>100000</v>
       </c>
       <c r="C37">
         <v>32000</v>
       </c>
       <c r="D37">
-        <v>0.25009999999999999</v>
-      </c>
-      <c r="E37" s="16">
-        <v>2.0000000000000001E-4</v>
+        <v>0.41239999999999999</v>
+      </c>
+      <c r="E37" s="11">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F37">
-        <v>1.04E-2</v>
+        <v>2.6499999999999999E-2</v>
       </c>
       <c r="G37">
-        <v>7.4000000000000003E-3</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="H37">
-        <v>7.4399999999999994E-2</v>
+        <v>0.1822</v>
       </c>
       <c r="I37">
-        <v>5.6079759090787898E-2</v>
+        <v>0.107963876600797</v>
       </c>
       <c r="J37">
-        <v>9.3299999999999994E-2</v>
-      </c>
-      <c r="K37" s="15">
-        <v>1.52E-2</v>
+        <v>0.184</v>
+      </c>
+      <c r="K37" s="11">
+        <v>0.248</v>
       </c>
       <c r="L37">
-        <v>8.9899999999999994E-2</v>
+        <v>0.158</v>
       </c>
       <c r="M37">
-        <v>5.0200000000000002E-2</v>
+        <v>8.2500000000000004E-2</v>
       </c>
       <c r="N37">
-        <v>0.50229999999999997</v>
+        <v>0.82520000000000004</v>
       </c>
       <c r="O37">
-        <v>0.18491267733175601</v>
+        <v>0.37376643649986602</v>
       </c>
       <c r="P37">
-        <v>0.44729999999999998</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>0.1477</v>
+        <v>0.76129999999999998</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>0.3261</v>
       </c>
       <c r="R37">
-        <v>0.62480000000000002</v>
+        <v>0.77929999999999999</v>
       </c>
       <c r="S37">
-        <v>0.58620000000000005</v>
+        <v>0.75929999999999997</v>
       </c>
       <c r="T37">
-        <v>6.0299999999999999E-2</v>
+        <v>8.2299999999999998E-2</v>
       </c>
       <c r="U37">
-        <v>0.31872591788305699</v>
+        <v>0.47483345168818403</v>
       </c>
       <c r="V37">
-        <v>0.42209999999999998</v>
+        <v>0.58079999999999998</v>
       </c>
       <c r="X37">
-        <v>18</v>
+        <v>27.8</v>
       </c>
       <c r="Y37">
-        <v>0.43</v>
+        <v>0.54</v>
       </c>
       <c r="Z37">
+        <v>27.8</v>
+      </c>
+      <c r="AA37">
+        <v>54</v>
+      </c>
+      <c r="AB37">
+        <v>25.1</v>
+      </c>
+      <c r="AC37">
+        <v>49.5</v>
+      </c>
+      <c r="AD37">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AE37">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AF37" s="10">
+        <v>28.4</v>
+      </c>
+      <c r="AG37">
+        <v>29.4</v>
+      </c>
+      <c r="AH37">
+        <v>26.7</v>
+      </c>
+      <c r="AI37">
+        <v>27.8</v>
+      </c>
+      <c r="AJ37">
+        <v>61.7</v>
+      </c>
+      <c r="AK37">
+        <v>63.4</v>
+      </c>
+      <c r="AL37">
+        <v>59.7</v>
+      </c>
+      <c r="AM37">
+        <v>61.6</v>
+      </c>
+      <c r="AN37">
+        <v>35.6</v>
+      </c>
+      <c r="AO37">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="AP37">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="AQ37">
+        <v>36</v>
+      </c>
+      <c r="AR37">
+        <v>22.7</v>
+      </c>
+      <c r="AS37">
+        <v>23.5</v>
+      </c>
+      <c r="AT37">
+        <v>21.5</v>
+      </c>
+      <c r="AU37">
+        <v>22.4</v>
+      </c>
+      <c r="AV37">
+        <v>14.8</v>
+      </c>
+      <c r="AW37">
+        <v>15.4</v>
+      </c>
+      <c r="AX37">
         <v>13.6</v>
       </c>
-      <c r="AA37">
-        <v>42.4</v>
-      </c>
-      <c r="AB37">
-        <v>14</v>
-      </c>
-      <c r="AC37">
-        <v>42.5</v>
-      </c>
-      <c r="AD37">
-        <v>0.442</v>
-      </c>
-      <c r="AE37">
-        <v>0.42099999999999999</v>
-      </c>
-      <c r="AF37" s="14">
-        <v>18.5</v>
-      </c>
-      <c r="AG37">
-        <v>19</v>
-      </c>
-      <c r="AH37">
-        <v>16.7</v>
-      </c>
-      <c r="AI37">
-        <v>17.3</v>
-      </c>
-      <c r="AJ37">
-        <v>51.8</v>
-      </c>
-      <c r="AK37">
-        <v>52.9</v>
-      </c>
-      <c r="AL37">
-        <v>48.8</v>
-      </c>
-      <c r="AM37">
-        <v>50.1</v>
-      </c>
-      <c r="AN37">
-        <v>24.9</v>
-      </c>
-      <c r="AO37">
-        <v>25.6</v>
-      </c>
-      <c r="AP37">
-        <v>23.7</v>
-      </c>
-      <c r="AQ37">
-        <v>24.5</v>
-      </c>
-      <c r="AR37">
-        <v>13.6</v>
-      </c>
-      <c r="AS37">
-        <v>14.1</v>
-      </c>
-      <c r="AT37">
-        <v>12.4</v>
-      </c>
-      <c r="AU37">
-        <v>12.9</v>
-      </c>
-      <c r="AV37">
-        <v>7.7</v>
-      </c>
-      <c r="AW37">
-        <v>7.9</v>
-      </c>
-      <c r="AX37">
-        <v>6.7</v>
-      </c>
       <c r="AY37">
-        <v>7</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.2">
@@ -19619,151 +19865,151 @@
         <v>34</v>
       </c>
       <c r="B38">
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="C38">
         <v>32000</v>
       </c>
       <c r="D38">
-        <v>0.35189999999999999</v>
-      </c>
-      <c r="E38" s="16">
-        <v>8.0000000000000004E-4</v>
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="E38" s="11">
+        <v>2E-3</v>
       </c>
       <c r="F38">
-        <v>1.72E-2</v>
+        <v>2.7E-2</v>
       </c>
       <c r="G38">
-        <v>1.2500000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="H38">
-        <v>0.1246</v>
+        <v>0.19020000000000001</v>
       </c>
       <c r="I38">
-        <v>8.2014642202872495E-2</v>
+        <v>0.110684435401554</v>
       </c>
       <c r="J38">
-        <v>0.1404</v>
-      </c>
-      <c r="K38" s="15">
-        <v>0.122</v>
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0.29459999999999997</v>
       </c>
       <c r="L38">
-        <v>0.13730000000000001</v>
+        <v>0.1618</v>
       </c>
       <c r="M38">
-        <v>7.3400000000000007E-2</v>
+        <v>8.4500000000000006E-2</v>
       </c>
       <c r="N38">
-        <v>0.73399999999999999</v>
+        <v>0.8448</v>
       </c>
       <c r="O38">
-        <v>0.31039647769832202</v>
+        <v>0.390407858842306</v>
       </c>
       <c r="P38">
-        <v>0.66879999999999995</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>0.25750000000000001</v>
+        <v>0.78310000000000002</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>0.32969999999999999</v>
       </c>
       <c r="R38">
-        <v>0.6966</v>
+        <v>0.78359999999999996</v>
       </c>
       <c r="S38">
-        <v>0.66210000000000002</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="T38">
-        <v>7.0099999999999996E-2</v>
+        <v>8.1699999999999995E-2</v>
       </c>
       <c r="U38">
-        <v>0.41438037226825802</v>
+        <v>0.49384577118594097</v>
       </c>
       <c r="V38">
-        <v>0.5252</v>
+        <v>0.5887</v>
       </c>
       <c r="X38">
-        <v>23.3</v>
+        <v>29.1</v>
       </c>
       <c r="Y38">
-        <v>0.49</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z38">
-        <v>21.3</v>
+        <v>29.6</v>
       </c>
       <c r="AA38">
-        <v>49.1</v>
+        <v>55.4</v>
       </c>
       <c r="AB38">
-        <v>19.899999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="AC38">
-        <v>46.4</v>
+        <v>50.4</v>
       </c>
       <c r="AD38">
-        <v>0.50600000000000001</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="AE38">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="AF38" s="14">
-        <v>23.9</v>
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="AF38" s="10">
+        <v>29.8</v>
       </c>
       <c r="AG38">
-        <v>24.7</v>
+        <v>30.9</v>
       </c>
       <c r="AH38">
-        <v>22.1</v>
+        <v>28.1</v>
       </c>
       <c r="AI38">
-        <v>23</v>
+        <v>29.2</v>
       </c>
       <c r="AJ38">
-        <v>57.2</v>
+        <v>63.1</v>
       </c>
       <c r="AK38">
-        <v>58.5</v>
+        <v>64.8</v>
       </c>
       <c r="AL38">
-        <v>55.7</v>
+        <v>61</v>
       </c>
       <c r="AM38">
-        <v>57.3</v>
+        <v>63</v>
       </c>
       <c r="AN38">
-        <v>30.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AO38">
-        <v>31.6</v>
+        <v>38.4</v>
       </c>
       <c r="AP38">
-        <v>30</v>
+        <v>36.1</v>
       </c>
       <c r="AQ38">
-        <v>31.1</v>
+        <v>37.4</v>
       </c>
       <c r="AR38">
-        <v>18.3</v>
+        <v>24.2</v>
       </c>
       <c r="AS38">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AT38">
-        <v>17.399999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="AU38">
-        <v>18.2</v>
+        <v>23.8</v>
       </c>
       <c r="AV38">
-        <v>11.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="AW38">
-        <v>11.7</v>
+        <v>16.7</v>
       </c>
       <c r="AX38">
-        <v>10.3</v>
+        <v>14.7</v>
       </c>
       <c r="AY38">
-        <v>10.8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.2">
@@ -19771,151 +20017,151 @@
         <v>34</v>
       </c>
       <c r="B39">
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="C39">
         <v>32000</v>
       </c>
       <c r="D39">
-        <v>0.3957</v>
-      </c>
-      <c r="E39" s="15">
-        <v>1.4E-3</v>
+        <v>0.435</v>
+      </c>
+      <c r="E39" s="11">
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="F39">
-        <v>2.4799999999999999E-2</v>
+        <v>2.64E-2</v>
       </c>
       <c r="G39">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="H39">
-        <v>0.17399999999999999</v>
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0.18479999999999999</v>
       </c>
       <c r="I39">
-        <v>0.102513232535606</v>
+        <v>0.115407008508155</v>
       </c>
       <c r="J39">
-        <v>0.17549999999999999</v>
-      </c>
-      <c r="K39" s="15">
-        <v>0.2051</v>
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.30070000000000002</v>
       </c>
       <c r="L39">
-        <v>0.15240000000000001</v>
+        <v>0.1623</v>
       </c>
       <c r="M39">
-        <v>0.08</v>
+        <v>8.4900000000000003E-2</v>
       </c>
       <c r="N39">
-        <v>0.79959999999999998</v>
+        <v>0.8488</v>
       </c>
       <c r="O39">
-        <v>0.35389804116293899</v>
+        <v>0.39227988253854701</v>
       </c>
       <c r="P39">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>0.2928</v>
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>0.34279999999999999</v>
       </c>
       <c r="R39">
-        <v>0.76280000000000003</v>
+        <v>0.8014</v>
       </c>
       <c r="S39">
-        <v>0.72829999999999995</v>
+        <v>0.76370000000000005</v>
       </c>
       <c r="T39">
-        <v>7.7700000000000005E-2</v>
+        <v>8.6699999999999999E-2</v>
       </c>
       <c r="U39">
-        <v>0.45277479496332501</v>
+        <v>0.50252798213753003</v>
       </c>
       <c r="V39">
-        <v>0.5665</v>
+        <v>0.6008</v>
       </c>
       <c r="X39">
-        <v>26.4</v>
+        <v>29.3</v>
       </c>
       <c r="Y39">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z39">
-        <v>25.7</v>
+        <v>30.1</v>
       </c>
       <c r="AA39">
-        <v>52.6</v>
+        <v>55.6</v>
       </c>
       <c r="AB39">
-        <v>23.3</v>
+        <v>26.8</v>
       </c>
       <c r="AC39">
-        <v>48.5</v>
+        <v>50.6</v>
       </c>
       <c r="AD39">
-        <v>0.53800000000000003</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="AE39">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="AF39" s="14">
-        <v>27</v>
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>30</v>
       </c>
       <c r="AG39">
-        <v>28</v>
+        <v>31.1</v>
       </c>
       <c r="AH39">
-        <v>25.3</v>
+        <v>28.3</v>
       </c>
       <c r="AI39">
-        <v>26.4</v>
+        <v>29.5</v>
       </c>
       <c r="AJ39">
-        <v>60.6</v>
+        <v>63</v>
       </c>
       <c r="AK39">
-        <v>62.2</v>
+        <v>64.7</v>
       </c>
       <c r="AL39">
-        <v>58.6</v>
+        <v>61.1</v>
       </c>
       <c r="AM39">
-        <v>60.5</v>
+        <v>63.2</v>
       </c>
       <c r="AN39">
-        <v>34.299999999999997</v>
+        <v>37.1</v>
       </c>
       <c r="AO39">
-        <v>35.4</v>
+        <v>38.4</v>
       </c>
       <c r="AP39">
-        <v>33.299999999999997</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="AQ39">
-        <v>34.6</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="AR39">
-        <v>21.5</v>
+        <v>24.1</v>
       </c>
       <c r="AS39">
-        <v>22.3</v>
+        <v>25</v>
       </c>
       <c r="AT39">
-        <v>20.3</v>
+        <v>23</v>
       </c>
       <c r="AU39">
-        <v>21.2</v>
+        <v>24</v>
       </c>
       <c r="AV39">
-        <v>13.7</v>
+        <v>16</v>
       </c>
       <c r="AW39">
-        <v>14.3</v>
+        <v>16.8</v>
       </c>
       <c r="AX39">
-        <v>12.6</v>
+        <v>14.9</v>
       </c>
       <c r="AY39">
-        <v>13.3</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.2">
@@ -19923,151 +20169,151 @@
         <v>34</v>
       </c>
       <c r="B40">
-        <v>100000</v>
+        <v>175000</v>
       </c>
       <c r="C40">
         <v>32000</v>
       </c>
       <c r="D40">
-        <v>0.41239999999999999</v>
-      </c>
-      <c r="E40" s="15">
-        <v>1.6999999999999999E-3</v>
+        <v>0.433</v>
+      </c>
+      <c r="E40" s="11">
+        <v>2.3E-3</v>
       </c>
       <c r="F40">
-        <v>2.6499999999999999E-2</v>
+        <v>2.87E-2</v>
       </c>
       <c r="G40">
-        <v>1.8200000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H40">
-        <v>0.1822</v>
+        <v>0.19980000000000001</v>
       </c>
       <c r="I40">
-        <v>0.107963876600797</v>
+        <v>0.11784805246675099</v>
       </c>
       <c r="J40">
-        <v>0.184</v>
-      </c>
-      <c r="K40" s="15">
-        <v>0.248</v>
+        <v>0.1986</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0.31569999999999998</v>
       </c>
       <c r="L40">
-        <v>0.158</v>
+        <v>0.16439999999999999</v>
       </c>
       <c r="M40">
-        <v>8.2500000000000004E-2</v>
+        <v>8.5400000000000004E-2</v>
       </c>
       <c r="N40">
-        <v>0.82520000000000004</v>
+        <v>0.85409999999999997</v>
       </c>
       <c r="O40">
-        <v>0.37376643649986602</v>
+        <v>0.396965503150987</v>
       </c>
       <c r="P40">
-        <v>0.76129999999999998</v>
-      </c>
-      <c r="Q40" s="15">
-        <v>0.3261</v>
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>0.34620000000000001</v>
       </c>
       <c r="R40">
-        <v>0.77929999999999999</v>
+        <v>0.78080000000000005</v>
       </c>
       <c r="S40">
-        <v>0.75929999999999997</v>
+        <v>0.75549999999999995</v>
       </c>
       <c r="T40">
-        <v>8.2299999999999998E-2</v>
+        <v>8.3500000000000005E-2</v>
       </c>
       <c r="U40">
-        <v>0.47483345168818403</v>
+        <v>0.499963256352769</v>
       </c>
       <c r="V40">
-        <v>0.58079999999999998</v>
+        <v>0.59950000000000003</v>
       </c>
       <c r="X40">
-        <v>27.8</v>
+        <v>30.3</v>
       </c>
       <c r="Y40">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z40">
-        <v>27.8</v>
+        <v>31.2</v>
       </c>
       <c r="AA40">
-        <v>54</v>
+        <v>56.4</v>
       </c>
       <c r="AB40">
-        <v>25.1</v>
+        <v>27.7</v>
       </c>
       <c r="AC40">
-        <v>49.5</v>
+        <v>51.1</v>
       </c>
       <c r="AD40">
-        <v>0.55100000000000005</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="AE40">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="AF40" s="14">
-        <v>28.4</v>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="AF40" s="10">
+        <v>31</v>
       </c>
       <c r="AG40">
-        <v>29.4</v>
+        <v>32.1</v>
       </c>
       <c r="AH40">
-        <v>26.7</v>
+        <v>29.3</v>
       </c>
       <c r="AI40">
-        <v>27.8</v>
+        <v>30.5</v>
       </c>
       <c r="AJ40">
-        <v>61.7</v>
+        <v>63.8</v>
       </c>
       <c r="AK40">
-        <v>63.4</v>
+        <v>65.5</v>
       </c>
       <c r="AL40">
-        <v>59.7</v>
+        <v>61.8</v>
       </c>
       <c r="AM40">
-        <v>61.6</v>
+        <v>63.8</v>
       </c>
       <c r="AN40">
-        <v>35.6</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="AO40">
-        <v>36.799999999999997</v>
+        <v>39.6</v>
       </c>
       <c r="AP40">
-        <v>34.700000000000003</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="AQ40">
-        <v>36</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="AR40">
-        <v>22.7</v>
+        <v>25.2</v>
       </c>
       <c r="AS40">
-        <v>23.5</v>
+        <v>26.2</v>
       </c>
       <c r="AT40">
-        <v>21.5</v>
+        <v>24</v>
       </c>
       <c r="AU40">
-        <v>22.4</v>
+        <v>25</v>
       </c>
       <c r="AV40">
-        <v>14.8</v>
+        <v>17</v>
       </c>
       <c r="AW40">
-        <v>15.4</v>
+        <v>17.7</v>
       </c>
       <c r="AX40">
-        <v>13.6</v>
+        <v>15.8</v>
       </c>
       <c r="AY40">
-        <v>14.3</v>
+        <v>16.600000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.2">
@@ -20075,976 +20321,397 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <v>125000</v>
+        <v>200000</v>
       </c>
       <c r="C41">
         <v>32000</v>
       </c>
       <c r="D41">
-        <v>0.42159999999999997</v>
-      </c>
-      <c r="E41" s="15">
-        <v>2E-3</v>
+        <v>0.44359999999999999</v>
+      </c>
+      <c r="E41" s="11">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="F41">
-        <v>2.7E-2</v>
+        <v>2.9700000000000001E-2</v>
       </c>
       <c r="G41">
-        <v>1.9E-2</v>
+        <v>2.06E-2</v>
       </c>
       <c r="H41">
-        <v>0.19020000000000001</v>
+        <v>0.2064</v>
       </c>
       <c r="I41">
-        <v>0.110684435401554</v>
+        <v>0.12263410629407399</v>
       </c>
       <c r="J41">
-        <v>0.19040000000000001</v>
-      </c>
-      <c r="K41" s="15">
-        <v>0.29459999999999997</v>
+        <v>0.20230000000000001</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0.34370000000000001</v>
       </c>
       <c r="L41">
-        <v>0.1618</v>
+        <v>0.1668</v>
       </c>
       <c r="M41">
-        <v>8.4500000000000006E-2</v>
+        <v>8.6400000000000005E-2</v>
       </c>
       <c r="N41">
-        <v>0.8448</v>
+        <v>0.8639</v>
       </c>
       <c r="O41">
-        <v>0.390407858842306</v>
+        <v>0.40792905509918698</v>
       </c>
       <c r="P41">
-        <v>0.78310000000000002</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>0.32969999999999999</v>
+        <v>0.80869999999999997</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>0.33929999999999999</v>
       </c>
       <c r="R41">
-        <v>0.78359999999999996</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="S41">
-        <v>0.74790000000000001</v>
+        <v>0.77280000000000004</v>
       </c>
       <c r="T41">
-        <v>8.1699999999999995E-2</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="U41">
-        <v>0.49384577118594097</v>
+        <v>0.51829337497970596</v>
       </c>
       <c r="V41">
-        <v>0.5887</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="X41">
-        <v>29.1</v>
+        <v>31.3</v>
       </c>
       <c r="Y41">
-        <v>0.55000000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Z41">
-        <v>29.6</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="AA41">
-        <v>55.4</v>
+        <v>57.5</v>
       </c>
       <c r="AB41">
-        <v>26.4</v>
+        <v>29</v>
       </c>
       <c r="AC41">
-        <v>50.4</v>
+        <v>51.8</v>
       </c>
       <c r="AD41">
-        <v>0.56299999999999994</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="AE41">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="AF41" s="14">
-        <v>29.8</v>
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="AF41" s="10">
+        <v>32</v>
       </c>
       <c r="AG41">
-        <v>30.9</v>
+        <v>33.1</v>
       </c>
       <c r="AH41">
-        <v>28.1</v>
+        <v>30.4</v>
       </c>
       <c r="AI41">
-        <v>29.2</v>
+        <v>31.7</v>
       </c>
       <c r="AJ41">
-        <v>63.1</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="AK41">
-        <v>64.8</v>
+        <v>66.3</v>
       </c>
       <c r="AL41">
-        <v>61</v>
+        <v>62.6</v>
       </c>
       <c r="AM41">
-        <v>63</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="AN41">
-        <v>37.200000000000003</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="AO41">
-        <v>38.4</v>
+        <v>40.6</v>
       </c>
       <c r="AP41">
-        <v>36.1</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="AQ41">
-        <v>37.4</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="AR41">
-        <v>24.2</v>
+        <v>26.1</v>
       </c>
       <c r="AS41">
+        <v>27.1</v>
+      </c>
+      <c r="AT41">
         <v>25</v>
       </c>
-      <c r="AT41">
-        <v>22.9</v>
-      </c>
       <c r="AU41">
-        <v>23.8</v>
+        <v>26</v>
       </c>
       <c r="AV41">
-        <v>16.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="AW41">
-        <v>16.7</v>
+        <v>18.5</v>
       </c>
       <c r="AX41">
-        <v>14.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="AY41">
-        <v>15.5</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42">
-        <v>150000</v>
-      </c>
-      <c r="C42">
-        <v>32000</v>
-      </c>
-      <c r="D42">
-        <v>0.435</v>
-      </c>
-      <c r="E42" s="15">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="F42">
-        <v>2.64E-2</v>
-      </c>
-      <c r="G42">
-        <v>1.8499999999999999E-2</v>
-      </c>
-      <c r="H42" s="14">
-        <v>0.18479999999999999</v>
-      </c>
-      <c r="I42">
-        <v>0.115407008508155</v>
-      </c>
-      <c r="J42">
-        <v>0.18870000000000001</v>
-      </c>
-      <c r="K42" s="15">
-        <v>0.30070000000000002</v>
-      </c>
-      <c r="L42">
-        <v>0.1623</v>
-      </c>
-      <c r="M42">
-        <v>8.4900000000000003E-2</v>
-      </c>
-      <c r="N42">
-        <v>0.8488</v>
-      </c>
-      <c r="O42">
-        <v>0.39227988253854701</v>
-      </c>
-      <c r="P42">
-        <v>0.78759999999999997</v>
-      </c>
-      <c r="Q42" s="15">
-        <v>0.34279999999999999</v>
-      </c>
-      <c r="R42">
-        <v>0.8014</v>
-      </c>
-      <c r="S42">
-        <v>0.76370000000000005</v>
-      </c>
-      <c r="T42">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="U42">
-        <v>0.50252798213753003</v>
-      </c>
-      <c r="V42">
-        <v>0.6008</v>
-      </c>
-      <c r="X42">
-        <v>29.3</v>
-      </c>
-      <c r="Y42">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z42">
-        <v>30.1</v>
-      </c>
-      <c r="AA42">
-        <v>55.6</v>
-      </c>
-      <c r="AB42">
-        <v>26.8</v>
-      </c>
-      <c r="AC42">
-        <v>50.6</v>
-      </c>
-      <c r="AD42">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="AE42">
-        <v>0.55100000000000005</v>
-      </c>
-      <c r="AF42" s="14">
-        <v>30</v>
-      </c>
-      <c r="AG42">
-        <v>31.1</v>
-      </c>
-      <c r="AH42">
-        <v>28.3</v>
-      </c>
-      <c r="AI42">
-        <v>29.5</v>
-      </c>
-      <c r="AJ42">
-        <v>63</v>
-      </c>
-      <c r="AK42">
-        <v>64.7</v>
-      </c>
-      <c r="AL42">
-        <v>61.1</v>
-      </c>
-      <c r="AM42">
-        <v>63.2</v>
-      </c>
-      <c r="AN42">
-        <v>37.1</v>
-      </c>
-      <c r="AO42">
-        <v>38.4</v>
-      </c>
-      <c r="AP42">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="AQ42">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="AR42">
-        <v>24.1</v>
-      </c>
-      <c r="AS42">
-        <v>25</v>
-      </c>
-      <c r="AT42">
-        <v>23</v>
-      </c>
-      <c r="AU42">
-        <v>24</v>
-      </c>
-      <c r="AV42">
-        <v>16</v>
-      </c>
-      <c r="AW42">
-        <v>16.8</v>
-      </c>
-      <c r="AX42">
-        <v>14.9</v>
-      </c>
-      <c r="AY42">
-        <v>15.7</v>
+      <c r="W42" t="s">
+        <v>61</v>
+      </c>
+      <c r="X42" s="13">
+        <f>CORREL($E$26:$E$41, X26:X41)</f>
+        <v>0.91221046010490514</v>
+      </c>
+      <c r="Y42" s="13">
+        <f t="shared" ref="Y42:AF42" si="8">CORREL($E$26:$E$41, Y26:Y41)</f>
+        <v>0.90769422727811722</v>
+      </c>
+      <c r="Z42" s="13">
+        <f t="shared" si="8"/>
+        <v>0.90673694381680259</v>
+      </c>
+      <c r="AA42" s="13">
+        <f t="shared" si="8"/>
+        <v>0.90629082538654004</v>
+      </c>
+      <c r="AB42" s="13">
+        <f t="shared" si="8"/>
+        <v>0.89994386799728165</v>
+      </c>
+      <c r="AC42" s="13">
+        <f t="shared" si="8"/>
+        <v>0.89907685451868546</v>
+      </c>
+      <c r="AD42" s="13">
+        <f>CORREL($E$26:$E$41, AD26:AD41)</f>
+        <v>0.90286831591807803</v>
+      </c>
+      <c r="AE42" s="13">
+        <f t="shared" si="8"/>
+        <v>0.91581974623833051</v>
+      </c>
+      <c r="AF42" s="13">
+        <f t="shared" si="8"/>
+        <v>0.91271900600342881</v>
       </c>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B43">
-        <v>175000</v>
-      </c>
-      <c r="C43">
-        <v>32000</v>
-      </c>
-      <c r="D43">
-        <v>0.433</v>
-      </c>
-      <c r="E43" s="15">
-        <v>2.3E-3</v>
-      </c>
-      <c r="F43">
-        <v>2.87E-2</v>
-      </c>
-      <c r="G43">
-        <v>0.02</v>
-      </c>
-      <c r="H43">
-        <v>0.19980000000000001</v>
-      </c>
-      <c r="I43">
-        <v>0.11784805246675099</v>
-      </c>
-      <c r="J43">
-        <v>0.1986</v>
-      </c>
-      <c r="K43" s="15">
-        <v>0.31569999999999998</v>
-      </c>
-      <c r="L43">
-        <v>0.16439999999999999</v>
-      </c>
-      <c r="M43">
-        <v>8.5400000000000004E-2</v>
-      </c>
-      <c r="N43">
-        <v>0.85409999999999997</v>
-      </c>
-      <c r="O43">
-        <v>0.396965503150987</v>
-      </c>
-      <c r="P43">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>0.34620000000000001</v>
-      </c>
-      <c r="R43">
-        <v>0.78080000000000005</v>
-      </c>
-      <c r="S43">
-        <v>0.75549999999999995</v>
-      </c>
-      <c r="T43">
-        <v>8.3500000000000005E-2</v>
-      </c>
-      <c r="U43">
-        <v>0.499963256352769</v>
-      </c>
-      <c r="V43">
-        <v>0.59950000000000003</v>
-      </c>
-      <c r="X43">
-        <v>30.3</v>
-      </c>
-      <c r="Y43">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Z43">
-        <v>31.2</v>
-      </c>
-      <c r="AA43">
-        <v>56.4</v>
-      </c>
-      <c r="AB43">
-        <v>27.7</v>
-      </c>
-      <c r="AC43">
-        <v>51.1</v>
-      </c>
-      <c r="AD43">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="AE43">
-        <v>0.55800000000000005</v>
+      <c r="W43" t="s">
+        <v>62</v>
+      </c>
+      <c r="X43" s="14">
+        <f>CORREL($I$26:$I$41, X26:X41)</f>
+        <v>0.94237047058563095</v>
+      </c>
+      <c r="Y43" s="14">
+        <f t="shared" ref="Y43:AF43" si="9">CORREL($I$26:$I$41, Y26:Y41)</f>
+        <v>0.95975925848316745</v>
+      </c>
+      <c r="Z43" s="14">
+        <f t="shared" si="9"/>
+        <v>0.94182341963291016</v>
+      </c>
+      <c r="AA43" s="14">
+        <f t="shared" si="9"/>
+        <v>0.94788209286039216</v>
+      </c>
+      <c r="AB43" s="14">
+        <f t="shared" si="9"/>
+        <v>0.93551924731560643</v>
+      </c>
+      <c r="AC43" s="14">
+        <f t="shared" si="9"/>
+        <v>0.93426131682340929</v>
+      </c>
+      <c r="AD43" s="14">
+        <f t="shared" si="9"/>
+        <v>0.95236341076410469</v>
+      </c>
+      <c r="AE43" s="14">
+        <f t="shared" si="9"/>
+        <v>0.96192446248510632</v>
       </c>
       <c r="AF43" s="14">
-        <v>31</v>
-      </c>
-      <c r="AG43">
-        <v>32.1</v>
-      </c>
-      <c r="AH43">
-        <v>29.3</v>
-      </c>
-      <c r="AI43">
-        <v>30.5</v>
-      </c>
-      <c r="AJ43">
-        <v>63.8</v>
-      </c>
-      <c r="AK43">
-        <v>65.5</v>
-      </c>
-      <c r="AL43">
-        <v>61.8</v>
-      </c>
-      <c r="AM43">
-        <v>63.8</v>
-      </c>
-      <c r="AN43">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="AO43">
-        <v>39.6</v>
-      </c>
-      <c r="AP43">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="AQ43">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="AR43">
-        <v>25.2</v>
-      </c>
-      <c r="AS43">
-        <v>26.2</v>
-      </c>
-      <c r="AT43">
-        <v>24</v>
-      </c>
-      <c r="AU43">
-        <v>25</v>
-      </c>
-      <c r="AV43">
-        <v>17</v>
-      </c>
-      <c r="AW43">
-        <v>17.7</v>
-      </c>
-      <c r="AX43">
-        <v>15.8</v>
-      </c>
-      <c r="AY43">
-        <v>16.600000000000001</v>
+        <f t="shared" si="9"/>
+        <v>0.9429530949240047</v>
       </c>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44">
-        <v>200000</v>
-      </c>
-      <c r="C44">
-        <v>32000</v>
-      </c>
-      <c r="D44">
-        <v>0.44359999999999999</v>
-      </c>
-      <c r="E44" s="15">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="F44">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="G44">
-        <v>2.06E-2</v>
-      </c>
-      <c r="H44">
-        <v>0.2064</v>
-      </c>
-      <c r="I44">
-        <v>0.12263410629407399</v>
-      </c>
-      <c r="J44">
-        <v>0.20230000000000001</v>
-      </c>
-      <c r="K44" s="15">
-        <v>0.34370000000000001</v>
-      </c>
-      <c r="L44">
-        <v>0.1668</v>
-      </c>
-      <c r="M44">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="N44">
-        <v>0.8639</v>
-      </c>
-      <c r="O44">
-        <v>0.40792905509918698</v>
-      </c>
-      <c r="P44">
-        <v>0.80869999999999997</v>
-      </c>
-      <c r="Q44" s="15">
-        <v>0.33929999999999999</v>
-      </c>
-      <c r="R44">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="S44">
-        <v>0.77280000000000004</v>
-      </c>
-      <c r="T44">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="U44">
-        <v>0.51829337497970596</v>
-      </c>
-      <c r="V44">
-        <v>0.60760000000000003</v>
-      </c>
-      <c r="X44">
-        <v>31.3</v>
-      </c>
-      <c r="Y44">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="Z44">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="AA44">
-        <v>57.5</v>
-      </c>
-      <c r="AB44">
-        <v>29</v>
-      </c>
-      <c r="AC44">
-        <v>51.8</v>
-      </c>
-      <c r="AD44">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="AE44">
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="AF44" s="14">
-        <v>32</v>
-      </c>
-      <c r="AG44">
-        <v>33.1</v>
-      </c>
-      <c r="AH44">
-        <v>30.4</v>
-      </c>
-      <c r="AI44">
-        <v>31.7</v>
-      </c>
-      <c r="AJ44">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="AK44">
-        <v>66.3</v>
-      </c>
-      <c r="AL44">
-        <v>62.6</v>
-      </c>
-      <c r="AM44">
-        <v>64.599999999999994</v>
-      </c>
-      <c r="AN44">
-        <v>39.299999999999997</v>
-      </c>
-      <c r="AO44">
-        <v>40.6</v>
-      </c>
-      <c r="AP44">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="AQ44">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="AR44">
-        <v>26.1</v>
-      </c>
-      <c r="AS44">
-        <v>27.1</v>
-      </c>
-      <c r="AT44">
-        <v>25</v>
-      </c>
-      <c r="AU44">
-        <v>26</v>
-      </c>
-      <c r="AV44">
-        <v>17.7</v>
-      </c>
-      <c r="AW44">
-        <v>18.5</v>
-      </c>
-      <c r="AX44">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="AY44">
-        <v>17.399999999999999</v>
+      <c r="W44" t="s">
+        <v>73</v>
+      </c>
+      <c r="X44" s="13">
+        <f>CORREL($K$26:$K$41, X$26:X$41)</f>
+        <v>0.96810862087651472</v>
+      </c>
+      <c r="Y44" s="13">
+        <f t="shared" ref="Y44:AF44" si="10">CORREL($K$26:$K$41, Y$26:Y$41)</f>
+        <v>0.97190662859705512</v>
+      </c>
+      <c r="Z44" s="13">
+        <f t="shared" si="10"/>
+        <v>0.96581329267155114</v>
+      </c>
+      <c r="AA44" s="13">
+        <f t="shared" si="10"/>
+        <v>0.96704513197755904</v>
+      </c>
+      <c r="AB44" s="13">
+        <f t="shared" si="10"/>
+        <v>0.96129260238125824</v>
+      </c>
+      <c r="AC44" s="13">
+        <f t="shared" si="10"/>
+        <v>0.96014158050432774</v>
+      </c>
+      <c r="AD44" s="13">
+        <f t="shared" si="10"/>
+        <v>0.96761483463214837</v>
+      </c>
+      <c r="AE44" s="13">
+        <f t="shared" si="10"/>
+        <v>0.97527596413257822</v>
+      </c>
+      <c r="AF44" s="13">
+        <f t="shared" si="10"/>
+        <v>0.96876777749815668</v>
       </c>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.2">
       <c r="W45" t="s">
-        <v>61</v>
-      </c>
-      <c r="X45" s="17">
-        <f>CORREL($E$29:$E$44, X29:X44)</f>
-        <v>0.91221046010490514</v>
-      </c>
-      <c r="Y45" s="17">
-        <f t="shared" ref="Y45:AF45" si="10">CORREL($E$29:$E$44, Y29:Y44)</f>
-        <v>0.90769422727811722</v>
-      </c>
-      <c r="Z45" s="17">
-        <f t="shared" si="10"/>
-        <v>0.90673694381680259</v>
-      </c>
-      <c r="AA45" s="17">
-        <f t="shared" si="10"/>
-        <v>0.90629082538654004</v>
-      </c>
-      <c r="AB45" s="17">
-        <f t="shared" si="10"/>
-        <v>0.89994386799728165</v>
-      </c>
-      <c r="AC45" s="17">
-        <f t="shared" si="10"/>
-        <v>0.89907685451868546</v>
-      </c>
-      <c r="AD45" s="17">
-        <f>CORREL($E$29:$E$44, AD29:AD44)</f>
-        <v>0.90286831591807803</v>
-      </c>
-      <c r="AE45" s="17">
-        <f t="shared" si="10"/>
-        <v>0.91581974623833051</v>
-      </c>
-      <c r="AF45" s="17">
-        <f t="shared" si="10"/>
-        <v>0.91271900600342881</v>
+        <v>74</v>
+      </c>
+      <c r="X45" s="13">
+        <f>CORREL($O$26:$O$41, X26:X41)</f>
+        <v>0.91692186201614456</v>
+      </c>
+      <c r="Y45" s="13">
+        <f t="shared" ref="Y45:AF45" si="11">CORREL($O$26:$O$41, Y26:Y41)</f>
+        <v>0.94463019448222219</v>
+      </c>
+      <c r="Z45" s="13">
+        <f t="shared" si="11"/>
+        <v>0.91674631645167537</v>
+      </c>
+      <c r="AA45" s="13">
+        <f t="shared" si="11"/>
+        <v>0.92757327618689422</v>
+      </c>
+      <c r="AB45" s="13">
+        <f t="shared" si="11"/>
+        <v>0.90836920248843023</v>
+      </c>
+      <c r="AC45" s="13">
+        <f t="shared" si="11"/>
+        <v>0.90848037108760982</v>
+      </c>
+      <c r="AD45" s="13">
+        <f t="shared" si="11"/>
+        <v>0.93635762615903584</v>
+      </c>
+      <c r="AE45" s="13">
+        <f t="shared" si="11"/>
+        <v>0.94794825798433402</v>
+      </c>
+      <c r="AF45" s="13">
+        <f t="shared" si="11"/>
+        <v>0.91764676564375036</v>
       </c>
     </row>
     <row r="46" spans="1:51" x14ac:dyDescent="0.2">
       <c r="W46" t="s">
-        <v>62</v>
-      </c>
-      <c r="X46" s="19">
-        <f>CORREL($I$29:$I$44, X29:X44)</f>
-        <v>0.94237047058563095</v>
-      </c>
-      <c r="Y46" s="19">
-        <f t="shared" ref="Y46:AF46" si="11">CORREL($I$29:$I$44, Y29:Y44)</f>
-        <v>0.95975925848316745</v>
-      </c>
-      <c r="Z46" s="19">
-        <f t="shared" si="11"/>
-        <v>0.94182341963291016</v>
-      </c>
-      <c r="AA46" s="19">
-        <f t="shared" si="11"/>
-        <v>0.94788209286039216</v>
-      </c>
-      <c r="AB46" s="19">
-        <f t="shared" si="11"/>
-        <v>0.93551924731560643</v>
-      </c>
-      <c r="AC46" s="19">
-        <f t="shared" si="11"/>
-        <v>0.93426131682340929</v>
-      </c>
-      <c r="AD46" s="19">
-        <f t="shared" si="11"/>
-        <v>0.95236341076410469</v>
-      </c>
-      <c r="AE46" s="19">
-        <f t="shared" si="11"/>
-        <v>0.96192446248510632</v>
-      </c>
-      <c r="AF46" s="19">
-        <f t="shared" si="11"/>
-        <v>0.9429530949240047</v>
+        <v>75</v>
+      </c>
+      <c r="X46" s="13">
+        <f>CORREL($Q$26:$Q$41, X$26:X$41)</f>
+        <v>0.98177602190442836</v>
+      </c>
+      <c r="Y46" s="13">
+        <f t="shared" ref="Y46:AF46" si="12">CORREL($Q$26:$Q$41, Y$26:Y$41)</f>
+        <v>0.98199978290271095</v>
+      </c>
+      <c r="Z46" s="13">
+        <f t="shared" si="12"/>
+        <v>0.9844076787348085</v>
+      </c>
+      <c r="AA46" s="13">
+        <f t="shared" si="12"/>
+        <v>0.9867986933576306</v>
+      </c>
+      <c r="AB46" s="13">
+        <f t="shared" si="12"/>
+        <v>0.98394149752209548</v>
+      </c>
+      <c r="AC46" s="13">
+        <f t="shared" si="12"/>
+        <v>0.98526302237118502</v>
+      </c>
+      <c r="AD46" s="13">
+        <f t="shared" si="12"/>
+        <v>0.98837817555831831</v>
+      </c>
+      <c r="AE46" s="13">
+        <f t="shared" si="12"/>
+        <v>0.98475751437452841</v>
+      </c>
+      <c r="AF46" s="13">
+        <f t="shared" si="12"/>
+        <v>0.98161422075541849</v>
       </c>
     </row>
     <row r="47" spans="1:51" x14ac:dyDescent="0.2">
       <c r="W47" t="s">
-        <v>63</v>
-      </c>
-      <c r="X47" s="19">
-        <f>CORREL($J$29:$J$44, X29:X44)</f>
-        <v>0.91700103016697365</v>
-      </c>
-      <c r="Y47" s="19">
-        <f t="shared" ref="Y47:AF47" si="12">CORREL($J$29:$J$44, Y29:Y44)</f>
-        <v>0.94346340272033513</v>
-      </c>
-      <c r="Z47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.91621191982879779</v>
-      </c>
-      <c r="AA47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.92491194956409395</v>
-      </c>
-      <c r="AB47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.90813347973780489</v>
-      </c>
-      <c r="AC47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.90648826201515698</v>
-      </c>
-      <c r="AD47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.93256860359331206</v>
-      </c>
-      <c r="AE47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.94342499872269114</v>
-      </c>
-      <c r="AF47" s="19">
-        <f t="shared" si="12"/>
-        <v>0.91760716890770788</v>
-      </c>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="W48" t="s">
-        <v>74</v>
-      </c>
-      <c r="X48" s="17">
-        <f>CORREL($K$29:$K$44, X$29:X$44)</f>
-        <v>0.96810862087651472</v>
-      </c>
-      <c r="Y48" s="17">
-        <f t="shared" ref="Y48:AF48" si="13">CORREL($K$29:$K$44, Y$29:Y$44)</f>
-        <v>0.97190662859705512</v>
-      </c>
-      <c r="Z48" s="17">
+        <v>76</v>
+      </c>
+      <c r="X47" s="13">
+        <f>CORREL($U$26:$U$41, X$26:X$41)</f>
+        <v>0.98938883699108504</v>
+      </c>
+      <c r="Y47" s="13">
+        <f t="shared" ref="Y47:AF47" si="13">CORREL($U$26:$U$41, Y$26:Y$41)</f>
+        <v>0.98417073189577386</v>
+      </c>
+      <c r="Z47" s="13">
         <f t="shared" si="13"/>
-        <v>0.96581329267155114</v>
-      </c>
-      <c r="AA48" s="17">
+        <v>0.990987071178562</v>
+      </c>
+      <c r="AA47" s="13">
         <f t="shared" si="13"/>
-        <v>0.96704513197755904</v>
-      </c>
-      <c r="AB48" s="17">
+        <v>0.99210405533300672</v>
+      </c>
+      <c r="AB47" s="13">
         <f t="shared" si="13"/>
-        <v>0.96129260238125824</v>
-      </c>
-      <c r="AC48" s="17">
+        <v>0.99207369945794588</v>
+      </c>
+      <c r="AC47" s="13">
         <f t="shared" si="13"/>
-        <v>0.96014158050432774</v>
-      </c>
-      <c r="AD48" s="17">
+        <v>0.99296282139438541</v>
+      </c>
+      <c r="AD47" s="13">
         <f t="shared" si="13"/>
-        <v>0.96761483463214837</v>
-      </c>
-      <c r="AE48" s="17">
+        <v>0.99183061427829733</v>
+      </c>
+      <c r="AE47" s="13">
         <f t="shared" si="13"/>
-        <v>0.97527596413257822</v>
-      </c>
-      <c r="AF48" s="17">
+        <v>0.98626459360126895</v>
+      </c>
+      <c r="AF47" s="13">
         <f t="shared" si="13"/>
-        <v>0.96876777749815668</v>
-      </c>
-    </row>
-    <row r="49" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W49" t="s">
-        <v>75</v>
-      </c>
-      <c r="X49" s="17">
-        <f>CORREL($O$29:$O$44, X29:X44)</f>
-        <v>0.91692186201614456</v>
-      </c>
-      <c r="Y49" s="17">
-        <f t="shared" ref="Y49:AF49" si="14">CORREL($O$29:$O$44, Y29:Y44)</f>
-        <v>0.94463019448222219</v>
-      </c>
-      <c r="Z49" s="17">
-        <f t="shared" si="14"/>
-        <v>0.91674631645167537</v>
-      </c>
-      <c r="AA49" s="17">
-        <f t="shared" si="14"/>
-        <v>0.92757327618689422</v>
-      </c>
-      <c r="AB49" s="17">
-        <f t="shared" si="14"/>
-        <v>0.90836920248843023</v>
-      </c>
-      <c r="AC49" s="17">
-        <f t="shared" si="14"/>
-        <v>0.90848037108760982</v>
-      </c>
-      <c r="AD49" s="17">
-        <f t="shared" si="14"/>
-        <v>0.93635762615903584</v>
-      </c>
-      <c r="AE49" s="17">
-        <f t="shared" si="14"/>
-        <v>0.94794825798433402</v>
-      </c>
-      <c r="AF49" s="17">
-        <f t="shared" si="14"/>
-        <v>0.91764676564375036</v>
-      </c>
-    </row>
-    <row r="50" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W50" t="s">
-        <v>76</v>
-      </c>
-      <c r="X50" s="17">
-        <f>CORREL($P$29:$P$44, X$29:X$44)</f>
-        <v>0.89851645439725081</v>
-      </c>
-      <c r="Y50" s="17">
-        <f t="shared" ref="Y50:AF50" si="15">CORREL($P$29:$P$44, Y$29:Y$44)</f>
-        <v>0.93221740120277186</v>
-      </c>
-      <c r="Z50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.89896652252172637</v>
-      </c>
-      <c r="AA50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.91140138680308025</v>
-      </c>
-      <c r="AB50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.89008222506344792</v>
-      </c>
-      <c r="AC50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.88966029471867447</v>
-      </c>
-      <c r="AD50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.9225881979222248</v>
-      </c>
-      <c r="AE50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.93432590971324525</v>
-      </c>
-      <c r="AF50" s="17">
-        <f t="shared" si="15"/>
-        <v>0.89918517619741201</v>
-      </c>
-    </row>
-    <row r="51" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W51" t="s">
-        <v>77</v>
-      </c>
-      <c r="X51" s="17">
-        <f>CORREL($Q$29:$Q$44, X$29:X$44)</f>
-        <v>0.98177602190442836</v>
-      </c>
-      <c r="Y51" s="17">
-        <f t="shared" ref="Y51:AF51" si="16">CORREL($Q$29:$Q$44, Y$29:Y$44)</f>
-        <v>0.98199978290271095</v>
-      </c>
-      <c r="Z51" s="17">
-        <f t="shared" si="16"/>
-        <v>0.9844076787348085</v>
-      </c>
-      <c r="AA51" s="17">
-        <f t="shared" si="16"/>
-        <v>0.9867986933576306</v>
-      </c>
-      <c r="AB51" s="17">
-        <f t="shared" si="16"/>
-        <v>0.98394149752209548</v>
-      </c>
-      <c r="AC51" s="17">
-        <f t="shared" si="16"/>
-        <v>0.98526302237118502</v>
-      </c>
-      <c r="AD51" s="17">
-        <f t="shared" si="16"/>
-        <v>0.98837817555831831</v>
-      </c>
-      <c r="AE51" s="17">
-        <f t="shared" si="16"/>
-        <v>0.98475751437452841</v>
-      </c>
-      <c r="AF51" s="17">
-        <f t="shared" si="16"/>
-        <v>0.98161422075541849</v>
-      </c>
-    </row>
-    <row r="52" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W52" t="s">
-        <v>78</v>
-      </c>
-      <c r="X52" s="17">
-        <f>CORREL($U$29:$U$44, X$29:X$44)</f>
-        <v>0.98938883699108504</v>
-      </c>
-      <c r="Y52" s="17">
-        <f t="shared" ref="Y52:AF52" si="17">CORREL($U$29:$U$44, Y$29:Y$44)</f>
-        <v>0.98417073189577386</v>
-      </c>
-      <c r="Z52" s="17">
-        <f t="shared" si="17"/>
-        <v>0.990987071178562</v>
-      </c>
-      <c r="AA52" s="17">
-        <f t="shared" si="17"/>
-        <v>0.99210405533300672</v>
-      </c>
-      <c r="AB52" s="17">
-        <f t="shared" si="17"/>
-        <v>0.99207369945794588</v>
-      </c>
-      <c r="AC52" s="17">
-        <f t="shared" si="17"/>
-        <v>0.99296282139438541</v>
-      </c>
-      <c r="AD52" s="17">
-        <f t="shared" si="17"/>
-        <v>0.99183061427829733</v>
-      </c>
-      <c r="AE52" s="17">
-        <f t="shared" si="17"/>
-        <v>0.98626459360126895</v>
-      </c>
-      <c r="AF52" s="17">
-        <f t="shared" si="17"/>
         <v>0.98961294355723328</v>
-      </c>
-    </row>
-    <row r="53" spans="23:32" x14ac:dyDescent="0.2">
-      <c r="W53" t="s">
-        <v>79</v>
-      </c>
-      <c r="X53" s="17">
-        <f>CORREL($V$29:$V$44, X$29:X$44)</f>
-        <v>0.98340510081406873</v>
-      </c>
-      <c r="Y53" s="17">
-        <f t="shared" ref="Y53:AF53" si="18">CORREL($V$29:$V$44, Y$29:Y$44)</f>
-        <v>0.98536321799458348</v>
-      </c>
-      <c r="Z53" s="17">
-        <f t="shared" si="18"/>
-        <v>0.9859333655494501</v>
-      </c>
-      <c r="AA53" s="17">
-        <f t="shared" si="18"/>
-        <v>0.99032457770144688</v>
-      </c>
-      <c r="AB53" s="17">
-        <f t="shared" si="18"/>
-        <v>0.98598257179481141</v>
-      </c>
-      <c r="AC53" s="17">
-        <f t="shared" si="18"/>
-        <v>0.98800561902309425</v>
-      </c>
-      <c r="AD53" s="17">
-        <f t="shared" si="18"/>
-        <v>0.99194697860016678</v>
-      </c>
-      <c r="AE53" s="17">
-        <f t="shared" si="18"/>
-        <v>0.98733598233124242</v>
-      </c>
-      <c r="AF53" s="17">
-        <f t="shared" si="18"/>
-        <v>0.98351826427251188</v>
       </c>
     </row>
   </sheetData>
